--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>d1qlong</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>reg index eq4squared eq4cubed eq6 eq6cubed _industry6  _industry9</t>
+  </si>
+  <si>
+    <t>reg index eq4squared eq4cubed eq6 eq6cubed male unemployed _region3 _region5 _industry4 _industry6  _industry9 _industry12 cprovider1</t>
+  </si>
+  <si>
+    <t>reg q2 eq6squared eq6cubed _income2 _industry6 _industry9</t>
+  </si>
+  <si>
+    <t>reg q2 eq4 eq6squared eq6cubed unemployed _region3 _region6 _income2 _income3 _income6 _stem1 _stem2 _industry2 _industry6 _industry7 _industry9 _industry12 _age2 cincome3 cprovider1</t>
+  </si>
+  <si>
+    <t>reg q2 eq4 eq6squared eq6cubed male unemployed _region3 _region5 _region6 _income2 _income3 _income6 _stem1 _stem2 _industry2 _industry6 _industry7 _industry9 _industry12 _age2 cage2 cincome3 cprovider1</t>
   </si>
 </sst>
 </file>
@@ -454,7 +466,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,21 +525,78 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
+      <c r="C6">
+        <v>0.42</v>
+      </c>
+      <c r="D6">
+        <v>-0.09</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0.39</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>0.37</v>
+      </c>
+      <c r="D8">
+        <v>0.21</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0.18</v>
+      </c>
+      <c r="D9">
+        <v>0.13</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -565,6 +634,18 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
+      <c r="C14">
+        <v>0.44</v>
+      </c>
+      <c r="D14">
+        <v>-0.05</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -573,21 +654,60 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
+      <c r="C15">
+        <v>0.39</v>
+      </c>
+      <c r="D15">
+        <v>0.21</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>0.35</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.22</v>
+      </c>
+      <c r="D17">
+        <v>0.18</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -595,17 +715,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>d1qlong</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>reg q2 eq4 eq6squared eq6cubed male unemployed _region3 _region5 _region6 _income2 _income3 _income6 _stem1 _stem2 _industry2 _industry6 _industry7 _industry9 _industry12 _age2 cage2 cincome3 cprovider1</t>
+  </si>
+  <si>
+    <t>reg index eq4 eq6 eq6cubed _income6 _industry6 _industry9</t>
+  </si>
+  <si>
+    <t>reg index male unemployed _region8 _region9 _income6 _income8 _stem1 _stem2 _industry2 _industry4-_industry6 _industry9 _industry11 cage2 cage3 cprovider1 cprovider2</t>
+  </si>
+  <si>
+    <t>reg index male unemployed _region8 _income6 _income8 _stem1 _stem2 _industry6 _industry9 cage2 cage3 cprovider1</t>
+  </si>
+  <si>
+    <t>reg index male _income6 _industry9 cprovider1</t>
   </si>
 </sst>
 </file>
@@ -466,13 +478,13 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,26 +492,32 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -522,87 +540,99 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="C6">
+        <v>-0.09</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6">
-        <v>0.42</v>
-      </c>
-      <c r="D6">
-        <v>-0.09</v>
-      </c>
-      <c r="E6">
-        <v>58</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>0.39</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7">
-        <v>0.39</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>0.37</v>
+      </c>
+      <c r="C8">
+        <v>0.21</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8">
-        <v>0.37</v>
-      </c>
-      <c r="D8">
-        <v>0.21</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>0.18</v>
+      </c>
+      <c r="C9">
+        <v>0.13</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9">
-        <v>0.18</v>
-      </c>
-      <c r="D9">
-        <v>0.13</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>0.49</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -610,7 +640,19 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>0.48</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -618,7 +660,19 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>0.44</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -626,92 +680,119 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0.27</v>
+      </c>
+      <c r="C13">
+        <v>0.23</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>0.44</v>
+      </c>
+      <c r="C14">
+        <v>-0.05</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14">
-        <v>0.44</v>
-      </c>
-      <c r="D14">
-        <v>-0.05</v>
-      </c>
-      <c r="E14">
-        <v>58</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>0.39</v>
+      </c>
+      <c r="C15">
+        <v>0.21</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15">
-        <v>0.39</v>
-      </c>
-      <c r="D15">
-        <v>0.21</v>
-      </c>
-      <c r="E15">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>0.35</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16">
-        <v>0.35</v>
-      </c>
-      <c r="D16">
-        <v>0.25</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>0.22</v>
+      </c>
+      <c r="C17">
+        <v>0.18</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
-      </c>
-      <c r="C17">
-        <v>0.22</v>
-      </c>
-      <c r="D17">
-        <v>0.18</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>0.34</v>
+      </c>
+      <c r="C18">
+        <v>-0.12</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -719,15 +800,60 @@
       <c r="A19" t="s">
         <v>33</v>
       </c>
+      <c r="B19">
+        <v>0.32</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
+      <c r="B20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.17</v>
+      </c>
+      <c r="C21">
+        <v>0.13</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>d1qlong</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>reg index male _income6 _industry9 cprovider1</t>
+  </si>
+  <si>
+    <t>reg q2 eq4 eq4s male unemployed _region3 _region5 _region6 _region7 _region9 _income2 _income4 _income6 _income8 _income9 _stem1 _stem2 _industry2 _industry6 _industry7 _industry9 _industry12 _age2 cincome2 cincome3 cprovider1</t>
+  </si>
+  <si>
+    <t>reg q2 eq4 eq4s male unemployed _region3 _region6 _region7 _income2 _income4 _income6 _income8 _stem1 _stem2 _industry2 _industry6 _industry12</t>
+  </si>
+  <si>
+    <t>reg q2 eq4 _income2 _income6 _industry6</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +520,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.44</v>
+      </c>
+      <c r="C2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="D2">
         <v>59</v>
       </c>
@@ -525,15 +540,60 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>0.18</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0.35</v>
+      </c>
+      <c r="C4">
+        <v>0.22</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
+      <c r="C5">
+        <v>0.08</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Factors" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>d1qlong</t>
   </si>
@@ -167,14 +167,136 @@
   </si>
   <si>
     <t>reg q2 eq4 _income2 _income6 _industry6</t>
+  </si>
+  <si>
+    <t>eq4</t>
+  </si>
+  <si>
+    <t>eq6</t>
+  </si>
+  <si>
+    <t>eq6cubed</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>_region3</t>
+  </si>
+  <si>
+    <t>_region5</t>
+  </si>
+  <si>
+    <t>_region6</t>
+  </si>
+  <si>
+    <t>_region8</t>
+  </si>
+  <si>
+    <t>_income2</t>
+  </si>
+  <si>
+    <t>_income6</t>
+  </si>
+  <si>
+    <t>_income10</t>
+  </si>
+  <si>
+    <t>_stem1</t>
+  </si>
+  <si>
+    <t>_stem2</t>
+  </si>
+  <si>
+    <t>_industry2</t>
+  </si>
+  <si>
+    <t>cage2</t>
+  </si>
+  <si>
+    <t>cage3</t>
+  </si>
+  <si>
+    <t>cincome2</t>
+  </si>
+  <si>
+    <t>cincome3</t>
+  </si>
+  <si>
+    <t>cprovider1</t>
+  </si>
+  <si>
+    <t>cprovider2</t>
+  </si>
+  <si>
+    <t>_industry6</t>
+  </si>
+  <si>
+    <t>_industry5</t>
+  </si>
+  <si>
+    <t>_industry4</t>
+  </si>
+  <si>
+    <t>_industry9</t>
+  </si>
+  <si>
+    <t>_industry10</t>
+  </si>
+  <si>
+    <t>_industry11</t>
+  </si>
+  <si>
+    <t>_industry12</t>
+  </si>
+  <si>
+    <t>_cons</t>
+  </si>
+  <si>
+    <t>Average Effect</t>
+  </si>
+  <si>
+    <t>Absolute Effect Size</t>
+  </si>
+  <si>
+    <t>_income8</t>
+  </si>
+  <si>
+    <t>eq4s</t>
+  </si>
+  <si>
+    <t>_region7</t>
+  </si>
+  <si>
+    <t>_income4</t>
+  </si>
+  <si>
+    <t>vert = in-model value stability (esp directional)</t>
+  </si>
+  <si>
+    <t>horiz = cross-model value stability (esp directional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,12 +320,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,36 +1057,982 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.52</v>
+      </c>
+      <c r="C4">
+        <v>-0.03</v>
+      </c>
+      <c r="G4">
+        <v>1.31</v>
+      </c>
+      <c r="H4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K4">
+        <v>-0.93</v>
+      </c>
+      <c r="L4">
+        <v>-0.81</v>
+      </c>
+      <c r="N4">
+        <v>1.41</v>
+      </c>
+      <c r="O4">
+        <v>-1.68</v>
+      </c>
+      <c r="P4">
+        <v>-8.93</v>
+      </c>
+      <c r="Q4">
+        <v>-1.06</v>
+      </c>
+      <c r="S4">
+        <v>-2.11</v>
+      </c>
+      <c r="T4">
+        <v>-3.14</v>
+      </c>
+      <c r="U4">
+        <v>-1.78</v>
+      </c>
+      <c r="X4">
+        <v>1.61</v>
+      </c>
+      <c r="AB4">
+        <v>-3.65</v>
+      </c>
+      <c r="AI4">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="N5">
+        <v>1.43</v>
+      </c>
+      <c r="P5">
+        <v>-6.41</v>
+      </c>
+      <c r="X5">
+        <v>2.06</v>
+      </c>
+      <c r="AI5">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>1.68</v>
+      </c>
+      <c r="E11">
+        <v>-0.01</v>
+      </c>
+      <c r="F11">
+        <v>1.44</v>
+      </c>
+      <c r="G11">
+        <v>2.13</v>
+      </c>
+      <c r="H11">
+        <v>2.59</v>
+      </c>
+      <c r="I11">
+        <v>-2.7</v>
+      </c>
+      <c r="J11">
+        <v>-4.41</v>
+      </c>
+      <c r="K11">
+        <v>-1.96</v>
+      </c>
+      <c r="M11">
+        <v>-8.2200000000000006</v>
+      </c>
+      <c r="N11">
+        <v>-1.94</v>
+      </c>
+      <c r="P11">
+        <v>-16.170000000000002</v>
+      </c>
+      <c r="R11">
+        <v>1.84</v>
+      </c>
+      <c r="S11">
+        <v>-1.17</v>
+      </c>
+      <c r="T11">
+        <v>-3.37</v>
+      </c>
+      <c r="U11">
+        <v>3.51</v>
+      </c>
+      <c r="V11">
+        <v>3.29</v>
+      </c>
+      <c r="W11">
+        <v>3.4</v>
+      </c>
+      <c r="X11">
+        <v>6.46</v>
+      </c>
+      <c r="Y11">
+        <v>7.07</v>
+      </c>
+      <c r="Z11">
+        <v>1.91</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>3.47</v>
+      </c>
+      <c r="AC11">
+        <v>1.05</v>
+      </c>
+      <c r="AD11">
+        <v>-0.23</v>
+      </c>
+      <c r="AE11">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.01</v>
+      </c>
+      <c r="AG11">
+        <v>3.44</v>
+      </c>
+      <c r="AH11">
+        <v>-1.02</v>
+      </c>
+      <c r="AI11">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>1.54</v>
+      </c>
+      <c r="E12">
+        <v>-0.01</v>
+      </c>
+      <c r="G12">
+        <v>2.58</v>
+      </c>
+      <c r="H12">
+        <v>1.69</v>
+      </c>
+      <c r="I12">
+        <v>-2.64</v>
+      </c>
+      <c r="J12">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="K12">
+        <v>-1.99</v>
+      </c>
+      <c r="M12">
+        <v>-7.19</v>
+      </c>
+      <c r="P12">
+        <v>-17.41</v>
+      </c>
+      <c r="T12">
+        <v>-2.13</v>
+      </c>
+      <c r="X12">
+        <v>4.72</v>
+      </c>
+      <c r="Y12">
+        <v>4.82</v>
+      </c>
+      <c r="AA12">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>1.17</v>
+      </c>
+      <c r="AD12">
+        <v>-0.25</v>
+      </c>
+      <c r="AE12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AF12">
+        <v>0.01</v>
+      </c>
+      <c r="AG12">
+        <v>1.65</v>
+      </c>
+      <c r="AI12">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.43</v>
+      </c>
+      <c r="D13">
+        <v>1.31</v>
+      </c>
+      <c r="E13">
+        <v>-0.01</v>
+      </c>
+      <c r="P13">
+        <v>-20.93</v>
+      </c>
+      <c r="X13">
+        <v>4.49</v>
+      </c>
+      <c r="Y13">
+        <v>8.09</v>
+      </c>
+      <c r="AI13">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>2.02</v>
+      </c>
+      <c r="H20">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="M20">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="P20">
+        <v>-18.850000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>-2.27</v>
+      </c>
+      <c r="S20">
+        <v>-2.92</v>
+      </c>
+      <c r="T20">
+        <v>-3.46</v>
+      </c>
+      <c r="X20">
+        <v>2.95</v>
+      </c>
+      <c r="Y20">
+        <v>5.36</v>
+      </c>
+      <c r="AC20">
+        <v>1.26</v>
+      </c>
+      <c r="AD20">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AG20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI20">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P21">
+        <v>-17.39</v>
+      </c>
+      <c r="Y21">
+        <v>6.29</v>
+      </c>
+      <c r="AG21">
+        <v>1.54</v>
+      </c>
+      <c r="AI21">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(B2:B21)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="C22" s="1">
+        <f>AVERAGE(C2:C21)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:AI22" si="0">AVERAGE(D2:D21)</f>
+        <v>1.5099999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9725000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1466666666666669</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.2750000000000004</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6266666666666667</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.81</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5166666666666666</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.68</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.155714285714284</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>AVERAGE(Q2:Q21)</f>
+        <v>-1.665</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.84</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0666666666666664</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0250000000000004</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86499999999999988</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.29</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7149999999999994</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3259999999999996</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.91</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.63</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.25333333333333335</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="AH22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.02</v>
+      </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="0"/>
+        <v>10.937142857142858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <f>ABS(B22)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="C23">
+        <f>ABS(C22)</f>
+        <v>0.03</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:AI23" si="1">ABS(D22)</f>
+        <v>1.5099999999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.9725000000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>2.1466666666666669</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.6266666666666667</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>6.5166666666666666</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1.68</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>15.155714285714284</v>
+      </c>
+      <c r="Q23">
+        <f>ABS(Q22)</f>
+        <v>1.665</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>1.84</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>2.0666666666666664</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>3.0250000000000004</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>0.86499999999999988</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>3.29</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>3.7149999999999994</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>6.3259999999999996</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>1.91</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="1"/>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="1"/>
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="1"/>
+        <v>10.937142857142858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <f>B23/(AVERAGE($B$23:$AI$23))</f>
+        <v>0.17086040417818305</v>
+      </c>
+      <c r="C24">
+        <f>C23/(AVERAGE($B$23:$AI$23))</f>
+        <v>1.1649573012148841E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:AI24" si="2">D23/(AVERAGE($B$23:$AI$23))</f>
+        <v>0.58636184161149163</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>3.8831910040496142E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0.55917950458314436</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.80304389963746015</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.76595942554878638</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.83359166886931724</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>1.66006415423121</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0.63166573665873726</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.31453847132801876</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>2.5305461376389982</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.11649573012148841</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0.65237608868033514</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>5.885253337423193</v>
+      </c>
+      <c r="Q24">
+        <f>Q23/(AVERAGE($B$23:$AI$23))</f>
+        <v>0.64655130217426071</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0.714507144745129</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0.80252614083692009</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>1.1746652787250083</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0.33589602185029155</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>1.277569840332323</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1.3202849413768687</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>1.4426054580044314</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>2.4565066291617854</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="2"/>
+        <v>0.74168948177347627</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>1.4095983344700098</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>3.4948719036446467E-2</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="2"/>
+        <v>0.45045015646975517</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="2"/>
+        <v>9.8374172102590224E-2</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
+        <v>5.4364674056694602E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>3.8831910040496142E-3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="2"/>
+        <v>0.86692239165407625</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="2"/>
+        <v>0.39608548241306063</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="2"/>
+        <v>4.2471014752862635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>d1qlong</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>horiz = cross-model value stability (esp directional)</t>
+  </si>
+  <si>
+    <t>_region9</t>
+  </si>
+  <si>
+    <t>_income9</t>
+  </si>
+  <si>
+    <t>_industry7</t>
+  </si>
+  <si>
+    <t>_age2</t>
   </si>
 </sst>
 </file>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,20 +1088,24 @@
     <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+    <col min="33" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1130,83 +1146,287 @@
         <v>58</v>
       </c>
       <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>64</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB1" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.61</v>
+      </c>
+      <c r="C2">
+        <v>-0.09</v>
+      </c>
+      <c r="D2">
+        <v>-0.36</v>
+      </c>
+      <c r="E2">
+        <v>-0.01</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
+      </c>
+      <c r="G2">
+        <v>0.73</v>
+      </c>
+      <c r="H2">
+        <v>1.2</v>
+      </c>
+      <c r="I2">
+        <v>-1.08</v>
+      </c>
+      <c r="J2">
+        <v>-0.81</v>
+      </c>
+      <c r="K2">
+        <v>-1.06</v>
+      </c>
+      <c r="L2">
+        <v>-0.65</v>
+      </c>
+      <c r="M2">
+        <v>-0.44</v>
+      </c>
+      <c r="N2">
+        <v>-0.42</v>
+      </c>
+      <c r="O2">
+        <v>1.58</v>
+      </c>
+      <c r="P2">
+        <v>-1.55</v>
+      </c>
+      <c r="Q2">
+        <v>-9.1300000000000008</v>
+      </c>
+      <c r="R2">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="S2">
+        <v>-1.67</v>
+      </c>
+      <c r="T2">
+        <v>-0.25</v>
+      </c>
+      <c r="U2">
+        <v>-1.53</v>
+      </c>
+      <c r="V2">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="W2">
+        <v>-1.93</v>
+      </c>
+      <c r="X2">
+        <v>0.03</v>
+      </c>
+      <c r="Y2">
+        <v>0.2</v>
+      </c>
+      <c r="Z2">
+        <v>1.78</v>
+      </c>
+      <c r="AA2">
+        <v>-0.94</v>
+      </c>
+      <c r="AB2">
+        <v>1.85</v>
+      </c>
+      <c r="AC2">
+        <v>-0.12</v>
+      </c>
+      <c r="AD2">
+        <v>-0.13</v>
+      </c>
+      <c r="AE2">
+        <v>-2.72</v>
+      </c>
+      <c r="AF2">
+        <v>-0.48</v>
+      </c>
+      <c r="AG2">
+        <v>-0.03</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0.09</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.01</v>
+      </c>
+      <c r="AK2">
+        <v>2.17</v>
+      </c>
+      <c r="AL2">
+        <v>-2.12</v>
+      </c>
+      <c r="AM2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.48</v>
+      </c>
+      <c r="C3">
+        <v>-0.03</v>
+      </c>
+      <c r="G3">
+        <v>0.82</v>
+      </c>
+      <c r="H3">
+        <v>1.22</v>
+      </c>
+      <c r="I3">
+        <v>-1.47</v>
+      </c>
+      <c r="J3">
+        <v>-0.81</v>
+      </c>
+      <c r="K3">
+        <v>-1.23</v>
+      </c>
+      <c r="L3">
+        <v>-1.06</v>
+      </c>
+      <c r="N3">
+        <v>-0.97</v>
+      </c>
+      <c r="O3">
+        <v>1.66</v>
+      </c>
+      <c r="P3">
+        <v>-1.93</v>
+      </c>
+      <c r="Q3">
+        <v>-9.9600000000000009</v>
+      </c>
+      <c r="R3">
+        <v>-2.33</v>
+      </c>
+      <c r="S3">
+        <v>-1.71</v>
+      </c>
+      <c r="U3">
+        <v>-1.86</v>
+      </c>
+      <c r="V3">
+        <v>-2.66</v>
+      </c>
+      <c r="W3">
+        <v>-1.97</v>
+      </c>
+      <c r="Z3">
+        <v>1.68</v>
+      </c>
+      <c r="AA3">
+        <v>-0.92</v>
+      </c>
+      <c r="AB3">
+        <v>1.44</v>
+      </c>
+      <c r="AE3">
+        <v>-2.96</v>
+      </c>
+      <c r="AF3">
+        <v>-0.82</v>
+      </c>
+      <c r="AI3">
+        <v>0.11</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.01</v>
+      </c>
+      <c r="AK3">
+        <v>0.44</v>
+      </c>
+      <c r="AM3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1231,83 +1451,83 @@
       <c r="L4">
         <v>-0.81</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.41</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-1.68</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-8.93</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-1.06</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>-2.11</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>-3.14</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>-1.78</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>1.61</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>-3.65</v>
       </c>
-      <c r="AI4">
+      <c r="AM4">
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.15</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.43</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-6.41</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>2.06</v>
       </c>
-      <c r="AI5">
+      <c r="AM5">
         <v>5.59</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1341,68 +1561,68 @@
       <c r="M11">
         <v>-8.2200000000000006</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-1.94</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-16.170000000000002</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>1.84</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>-1.17</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>-3.37</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3.51</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>3.29</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>3.4</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6.46</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>7.07</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>1.91</v>
       </c>
-      <c r="AA11">
+      <c r="AD11">
         <v>5</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>3.47</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>1.05</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>-0.23</v>
       </c>
-      <c r="AE11">
+      <c r="AI11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AF11">
+      <c r="AJ11">
         <v>0.01</v>
       </c>
-      <c r="AG11">
+      <c r="AK11">
         <v>3.44</v>
       </c>
-      <c r="AH11">
+      <c r="AL11">
         <v>-1.02</v>
       </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>7.88</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1433,41 +1653,41 @@
       <c r="M12">
         <v>-7.19</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-17.41</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>-2.13</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>4.72</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>4.82</v>
       </c>
-      <c r="AA12">
+      <c r="AD12">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>1.17</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>-0.25</v>
       </c>
-      <c r="AE12">
+      <c r="AI12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AF12">
+      <c r="AJ12">
         <v>0.01</v>
       </c>
-      <c r="AG12">
+      <c r="AK12">
         <v>1.65</v>
       </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>9.49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1480,50 +1700,152 @@
       <c r="E13">
         <v>-0.01</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-20.93</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>4.49</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>8.09</v>
       </c>
-      <c r="AI13">
+      <c r="AM13">
         <v>12.65</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G18">
+        <v>1.62</v>
+      </c>
+      <c r="H18">
+        <v>2.79</v>
+      </c>
+      <c r="I18">
+        <v>-0.43</v>
+      </c>
+      <c r="J18">
+        <v>-0.02</v>
+      </c>
+      <c r="K18">
+        <v>0.53</v>
+      </c>
+      <c r="L18">
+        <v>1.52</v>
+      </c>
+      <c r="M18">
+        <v>-2.14</v>
+      </c>
+      <c r="N18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O18">
+        <v>-0.21</v>
+      </c>
+      <c r="P18">
+        <v>-1.39</v>
+      </c>
+      <c r="Q18">
+        <v>-19.75</v>
+      </c>
+      <c r="R18">
+        <v>-2.71</v>
+      </c>
+      <c r="S18">
+        <v>0.04</v>
+      </c>
+      <c r="T18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U18">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="V18">
+        <v>-3</v>
+      </c>
+      <c r="W18">
+        <v>1.53</v>
+      </c>
+      <c r="X18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>1.64</v>
+      </c>
+      <c r="Z18">
+        <v>3.46</v>
+      </c>
+      <c r="AA18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AB18">
+        <v>6.11</v>
+      </c>
+      <c r="AC18">
+        <v>0.51</v>
+      </c>
+      <c r="AD18">
+        <v>2.48</v>
+      </c>
+      <c r="AE18">
+        <v>-0.42</v>
+      </c>
+      <c r="AF18">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>1.19</v>
+      </c>
+      <c r="AH18">
+        <v>-0.26</v>
+      </c>
+      <c r="AI18">
+        <v>0.08</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.26</v>
+      </c>
+      <c r="AK18">
+        <v>6.81</v>
+      </c>
+      <c r="AL18">
+        <v>-3.32</v>
+      </c>
+      <c r="AM18">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1536,72 +1858,72 @@
       <c r="M20">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-18.850000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-2.27</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>-2.92</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>-3.46</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>2.95</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>5.36</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>1.26</v>
       </c>
-      <c r="AD20">
+      <c r="AH20">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="AG20">
+      <c r="AK20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AI20">
+      <c r="AM20">
         <v>16.63</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="G21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-17.39</v>
       </c>
-      <c r="Y21">
+      <c r="AB21">
         <v>6.29</v>
       </c>
-      <c r="AG21">
+      <c r="AK21">
         <v>1.54</v>
       </c>
-      <c r="AI21">
+      <c r="AM21">
         <v>17.09</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
-        <v>0.44000000000000006</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="C22" s="1">
         <f>AVERAGE(C2:C21)</f>
-        <v>-0.03</v>
+        <v>-4.9999999999999996E-2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:AI22" si="0">AVERAGE(D2:D21)</f>
-        <v>1.5099999999999998</v>
+        <f t="shared" ref="D22:AM22" si="0">AVERAGE(D2:D21)</f>
+        <v>1.0425</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
@@ -1609,140 +1931,156 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.44</v>
+        <v>0.6133333333333334</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>2.0680000000000001</v>
+        <v>1.6887500000000002</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>1.9725000000000001</v>
+        <v>1.8714285714285714</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1466666666666669</v>
+        <v>-1.57</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2750000000000004</v>
+        <v>-2.0379999999999998</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6266666666666667</v>
+        <v>-1.1066666666666667</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.81</v>
+        <v>-0.25</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>-6.5166666666666666</v>
+        <v>-4.4260000000000002</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.68</v>
+        <v>0.65500000000000014</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="0"/>
-        <v>-15.155714285714284</v>
+        <v>-1.6375</v>
       </c>
       <c r="Q22" s="1">
-        <f>AVERAGE(Q2:Q21)</f>
-        <v>-1.665</v>
+        <f t="shared" si="0"/>
+        <v>-14.493</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
+        <f>AVERAGE(R2:R21)</f>
+        <v>-2.1100000000000003</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0666666666666664</v>
+        <f>AVERAGE(S2:S21)</f>
+        <v>-1.1133333333333333</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0250000000000004</v>
+        <v>0.89666666666666683</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="0"/>
-        <v>0.86499999999999988</v>
+        <v>-2.023333333333333</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>-2.8957142857142855</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>-0.12799999999999997</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="0"/>
-        <v>3.7149999999999994</v>
+        <v>1.7833333333333332</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="0"/>
-        <v>6.3259999999999996</v>
+        <v>1.7466666666666668</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="0"/>
-        <v>1.91</v>
+        <v>3.2455555555555553</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>-1.3866666666666667</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="0"/>
-        <v>-8.9999999999999858E-2</v>
+        <v>5.1287500000000001</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25333333333333335</v>
+        <v>2.4024999999999999</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14000000000000001</v>
+        <v>-1.2559999999999998</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>-0.81666666666666654</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="0"/>
-        <v>2.2324999999999999</v>
+        <v>0.92799999999999994</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.02</v>
+        <v>-0.20400000000000001</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>10.937142857142858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2000000000000005E-2</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.621428571428571</v>
+      </c>
+      <c r="AL22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1533333333333333</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="0"/>
+        <v>10.215999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
-        <v>0.44000000000000006</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="C23">
         <f>ABS(C22)</f>
-        <v>0.03</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:AI23" si="1">ABS(D22)</f>
-        <v>1.5099999999999998</v>
+        <f t="shared" ref="D23:AM23" si="1">ABS(D22)</f>
+        <v>1.0425</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -1750,282 +2088,314 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1.44</v>
+        <v>0.6133333333333334</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>2.0680000000000001</v>
+        <v>1.6887500000000002</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.9725000000000001</v>
+        <v>1.8714285714285714</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>2.1466666666666669</v>
+        <v>1.57</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>4.2750000000000004</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>1.6266666666666667</v>
+        <v>1.1066666666666667</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>6.5166666666666666</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>1.68</v>
+        <v>0.65500000000000014</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>15.155714285714284</v>
+        <v>1.6375</v>
       </c>
       <c r="Q23">
-        <f>ABS(Q22)</f>
-        <v>1.665</v>
+        <f t="shared" si="1"/>
+        <v>14.493</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
-        <v>1.84</v>
+        <f>ABS(R22)</f>
+        <v>2.1100000000000003</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>2.0666666666666664</v>
+        <f>ABS(S22)</f>
+        <v>1.1133333333333333</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>3.0250000000000004</v>
+        <v>0.89666666666666683</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.86499999999999988</v>
+        <v>2.023333333333333</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
-        <v>3.29</v>
+        <v>2.8957142857142855</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>0.12799999999999997</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>3.7149999999999994</v>
+        <v>1.7833333333333332</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>6.3259999999999996</v>
+        <v>1.7466666666666668</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>1.91</v>
+        <v>3.2455555555555553</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>3.63</v>
+        <v>1.3866666666666667</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>8.9999999999999858E-2</v>
+        <v>5.1287500000000001</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>1.1599999999999999</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>0.25333333333333335</v>
+        <v>2.4024999999999999</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>1.2559999999999998</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.81666666666666654</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>2.2324999999999999</v>
+        <v>0.92799999999999994</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>1.02</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>10.937142857142858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="1"/>
+        <v>2.621428571428571</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="1"/>
+        <v>2.1533333333333333</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="1"/>
+        <v>10.215999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <f>B23/(AVERAGE($B$23:$AI$23))</f>
-        <v>0.17086040417818305</v>
+        <f>B23/(AVERAGE($B$23:$AM$23))</f>
+        <v>0.23494808373588291</v>
       </c>
       <c r="C24">
-        <f>C23/(AVERAGE($B$23:$AI$23))</f>
-        <v>1.1649573012148841E-2</v>
+        <f>C23/(AVERAGE($B$23:$AM$23))</f>
+        <v>2.4994476993179037E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:AI24" si="2">D23/(AVERAGE($B$23:$AI$23))</f>
-        <v>0.58636184161149163</v>
+        <f t="shared" ref="D24:AM24" si="2">D23/(AVERAGE($B$23:$AM$23))</f>
+        <v>0.52113484530778298</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3.8831910040496142E-3</v>
+        <v>4.9988953986358081E-3</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.55917950458314436</v>
+        <v>0.30659891778299625</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.80304389963746015</v>
+        <v>0.84418846044462215</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.76595942554878638</v>
+        <v>0.93550756745898689</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.83359166886931724</v>
+        <v>0.78482657758582186</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>1.66006415423121</v>
+        <v>1.0187748822419775</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.63166573665873726</v>
+        <v>0.55321109078236275</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.31453847132801876</v>
+        <v>0.12497238496589519</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>2.5305461376389982</v>
+        <v>2.2125111034362086</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.11649573012148841</v>
+        <v>0.10997569876998776</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.65237608868033514</v>
+        <v>0.32742764861064549</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>5.885253337423193</v>
+        <v>0.81856912152661354</v>
       </c>
       <c r="Q24">
-        <f>Q23/(AVERAGE($B$23:$AI$23))</f>
-        <v>0.64655130217426071</v>
+        <f t="shared" si="2"/>
+        <v>7.2448991012428765</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
-        <v>0.714507144745129</v>
+        <f>R23/(AVERAGE($B$23:$AM$23))</f>
+        <v>1.0547669291121555</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
-        <v>0.80252614083692009</v>
+        <f>S23/(AVERAGE($B$23:$AM$23))</f>
+        <v>0.55654368771478657</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>1.1746652787250083</v>
+        <v>0.44823428741101085</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>0.33589602185029155</v>
+        <v>1.0114431689906449</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>1.277569840332323</v>
+        <v>1.4475372818621117</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>1.3202849413768687</v>
+        <v>6.398586110253833E-2</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>1.4426054580044314</v>
+        <v>0.89146967942338562</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>2.4565066291617854</v>
+        <v>0.87314039629505447</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.74168948177347627</v>
+        <v>1.6224192732683549</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>1.4095983344700098</v>
+        <v>0.69318016194416532</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>3.4948719036446467E-2</v>
+        <v>2.56380847757534</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.45045015646975517</v>
+        <v>0.38324864722874524</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>9.8374172102590224E-2</v>
+        <v>1.2009846195222527</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>5.4364674056694602E-2</v>
+        <v>0.62786126206865733</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>3.8831910040496142E-3</v>
+        <v>0.40824312422192421</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.86692239165407625</v>
+        <v>0.46389749299340294</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.39608548241306063</v>
+        <v>0.10197746613217049</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>4.2471014752862635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="2"/>
+        <v>2.5994256072906202E-2</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="2"/>
+        <v>1.3104247223566723</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="2"/>
+        <v>1.0764288091729106</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="2"/>
+        <v>5.1068715392463409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>d1qlong</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>_age2</t>
+  </si>
+  <si>
+    <t>_income3*</t>
+  </si>
+  <si>
+    <t>eq6s*</t>
+  </si>
+  <si>
+    <t>*needs to be rechecked for all models</t>
+  </si>
+  <si>
+    <t>d1iweak*</t>
+  </si>
+  <si>
+    <t>d1ilong*</t>
   </si>
 </sst>
 </file>
@@ -632,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,31 +1096,33 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
-    <col min="33" max="34" width="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" customWidth="1"/>
+    <col min="35" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1119,112 +1136,118 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1237,113 +1260,113 @@
       <c r="D2">
         <v>-0.36</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.01</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.12</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.73</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-1.08</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.81</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-1.06</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.65</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-0.44</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-0.42</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.58</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>-1.55</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>-9.1300000000000008</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>-1.67</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>-0.25</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>-1.53</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>-1.93</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.03</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0.2</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>1.78</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>-0.94</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>1.85</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>-0.12</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>-0.13</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>-2.72</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>-0.48</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>-0.03</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.09</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>-0.01</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>2.17</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>-2.12</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1353,80 +1376,80 @@
       <c r="C3">
         <v>-0.03</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.82</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.22</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.47</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.81</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-1.23</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-1.06</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.97</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.66</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>-1.93</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>-9.9600000000000009</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>-2.33</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>-1.71</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>-1.86</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>-2.66</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>-1.97</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>1.68</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>-0.92</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>1.44</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>-2.96</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>-0.82</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>0.11</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>-0.01</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>0.44</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1436,100 +1459,358 @@
       <c r="C4">
         <v>-0.03</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.31</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-0.93</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-0.81</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.41</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>-1.68</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>-8.93</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>-1.06</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>-2.11</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>-3.14</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>-1.78</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>1.61</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>-3.65</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.15</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.43</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>-6.41</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>2.06</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>5.59</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.61</v>
+      </c>
+      <c r="C6">
+        <v>-0.09</v>
+      </c>
+      <c r="D6">
+        <v>-0.36</v>
+      </c>
+      <c r="F6">
+        <v>-0.01</v>
+      </c>
+      <c r="G6">
+        <v>0.12</v>
+      </c>
+      <c r="H6">
+        <v>0.73</v>
+      </c>
+      <c r="I6">
+        <v>1.2</v>
+      </c>
+      <c r="J6">
+        <v>-0.64</v>
+      </c>
+      <c r="K6">
+        <v>-0.37</v>
+      </c>
+      <c r="L6">
+        <v>-0.62</v>
+      </c>
+      <c r="M6">
+        <v>-0.21</v>
+      </c>
+      <c r="O6">
+        <v>0.02</v>
+      </c>
+      <c r="P6">
+        <v>1.9</v>
+      </c>
+      <c r="Q6">
+        <v>1.24</v>
+      </c>
+      <c r="R6">
+        <v>-0.33</v>
+      </c>
+      <c r="S6">
+        <v>2.19</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>0.92</v>
+      </c>
+      <c r="W6">
+        <v>-1.53</v>
+      </c>
+      <c r="X6">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>-1.93</v>
+      </c>
+      <c r="Z6">
+        <v>0.03</v>
+      </c>
+      <c r="AA6">
+        <v>0.2</v>
+      </c>
+      <c r="AB6">
+        <v>1.78</v>
+      </c>
+      <c r="AC6">
+        <v>-0.94</v>
+      </c>
+      <c r="AD6">
+        <v>1.85</v>
+      </c>
+      <c r="AE6">
+        <v>-0.12</v>
+      </c>
+      <c r="AF6">
+        <v>-0.13</v>
+      </c>
+      <c r="AG6">
+        <v>-2.72</v>
+      </c>
+      <c r="AH6">
+        <v>-0.48</v>
+      </c>
+      <c r="AI6">
+        <v>-0.03</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>-0.05</v>
+      </c>
+      <c r="AL6">
+        <v>0.01</v>
+      </c>
+      <c r="AM6">
+        <v>2.17</v>
+      </c>
+      <c r="AN6">
+        <v>-2.12</v>
+      </c>
+      <c r="AO6">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.17</v>
+      </c>
+      <c r="E7">
+        <v>0.11</v>
+      </c>
+      <c r="F7">
+        <v>-0.01</v>
+      </c>
+      <c r="H7">
+        <v>0.69</v>
+      </c>
+      <c r="I7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J7">
+        <v>-0.99</v>
+      </c>
+      <c r="K7">
+        <v>-0.91</v>
+      </c>
+      <c r="L7">
+        <v>-0.73</v>
+      </c>
+      <c r="P7">
+        <v>1.96</v>
+      </c>
+      <c r="Q7">
+        <v>1.34</v>
+      </c>
+      <c r="S7">
+        <v>1.7</v>
+      </c>
+      <c r="W7">
+        <v>-1.2</v>
+      </c>
+      <c r="X7">
+        <v>-2.04</v>
+      </c>
+      <c r="Y7">
+        <v>-1.7</v>
+      </c>
+      <c r="AB7">
+        <v>1.47</v>
+      </c>
+      <c r="AC7">
+        <v>-1.28</v>
+      </c>
+      <c r="AD7">
+        <v>1.56</v>
+      </c>
+      <c r="AG7">
+        <v>-2.42</v>
+      </c>
+      <c r="AH7">
+        <v>-0.98</v>
+      </c>
+      <c r="AI7">
+        <v>-0.05</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0.41</v>
+      </c>
+      <c r="AO7">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.18</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>-0.01</v>
+      </c>
+      <c r="I8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J8">
+        <v>-0.87</v>
+      </c>
+      <c r="L8">
+        <v>-0.79</v>
+      </c>
+      <c r="P8">
+        <v>1.85</v>
+      </c>
+      <c r="Q8">
+        <v>1.35</v>
+      </c>
+      <c r="S8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W8">
+        <v>-1.36</v>
+      </c>
+      <c r="X8">
+        <v>-2.1</v>
+      </c>
+      <c r="Y8">
+        <v>-1.69</v>
+      </c>
+      <c r="AB8">
+        <v>1.71</v>
+      </c>
+      <c r="AC8">
+        <v>-1.3</v>
+      </c>
+      <c r="AD8">
+        <v>1.86</v>
+      </c>
+      <c r="AG8">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="AH8">
+        <v>-1.23</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AO8">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>-0.01</v>
+      </c>
+      <c r="P9">
+        <v>1.84</v>
+      </c>
+      <c r="AB9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>3.2</v>
+      </c>
+      <c r="AO9">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>0.55000000000000004</v>
@@ -1537,92 +1818,92 @@
       <c r="D11">
         <v>1.68</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.01</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.44</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.13</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.59</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-2.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-4.41</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-1.96</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-8.2200000000000006</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-1.94</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>-16.170000000000002</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1.84</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>-1.17</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>-3.37</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>3.51</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>3.29</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>3.4</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>6.46</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>7.07</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>1.91</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>5</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>3.47</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>1.05</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>-0.23</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>0.01</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>3.44</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>-1.02</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>7.88</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1632,62 +1913,62 @@
       <c r="D12">
         <v>1.54</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.01</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.58</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.69</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-2.64</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-1.99</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-7.19</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>-17.41</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>-2.13</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>4.72</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>4.82</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>1.17</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>-0.25</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>0.01</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>1.65</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>9.49</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1697,705 +1978,762 @@
       <c r="D13">
         <v>1.31</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.01</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>-20.93</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>4.49</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>8.09</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>12.65</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.62</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.79</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.43</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.02</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.53</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.52</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-2.14</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.0499999999999998</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-0.21</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>-1.39</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>-19.75</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>-2.71</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0.04</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>-3</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>1.53</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>1.64</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>3.46</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>6.11</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>0.51</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>2.48</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>-0.42</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>1.19</v>
-      </c>
-      <c r="AH18">
-        <v>-0.26</v>
-      </c>
-      <c r="AI18">
-        <v>0.08</v>
       </c>
       <c r="AJ18">
         <v>-0.26</v>
       </c>
       <c r="AK18">
+        <v>0.08</v>
+      </c>
+      <c r="AL18">
+        <v>-0.26</v>
+      </c>
+      <c r="AM18">
         <v>6.81</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>-3.32</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2.42</v>
+      </c>
+      <c r="I19">
+        <v>2.85</v>
+      </c>
+      <c r="N19">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="O19">
+        <v>2.23</v>
+      </c>
+      <c r="S19">
+        <v>-19.27</v>
+      </c>
+      <c r="T19">
+        <v>-2.34</v>
+      </c>
+      <c r="W19">
+        <v>-2.38</v>
+      </c>
+      <c r="X19">
+        <v>-3.62</v>
+      </c>
+      <c r="Y19">
+        <v>2.65</v>
+      </c>
+      <c r="Z19">
+        <v>2.19</v>
+      </c>
+      <c r="AA19">
+        <v>1.97</v>
+      </c>
+      <c r="AB19">
+        <v>4.21</v>
+      </c>
+      <c r="AD19">
+        <v>6.32</v>
+      </c>
+      <c r="AF19">
+        <v>3.07</v>
+      </c>
+      <c r="AI19">
+        <v>1.48</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.32</v>
+      </c>
+      <c r="AM19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AN19">
+        <v>-1.52</v>
+      </c>
+      <c r="AO19">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.02</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>-18.850000000000001</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>-2.27</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>-2.92</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>-3.46</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>2.95</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>5.36</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>1.26</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>16.63</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>-17.39</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>6.29</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>1.54</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>17.09</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
-        <v>0.46999999999999992</v>
+        <v>0.42499999999999993</v>
       </c>
       <c r="C22" s="1">
         <f>AVERAGE(C2:C21)</f>
-        <v>-4.9999999999999996E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:AM22" si="0">AVERAGE(D2:D21)</f>
-        <v>1.0425</v>
-      </c>
-      <c r="E22" s="1">
+        <f t="shared" ref="D22:AO22" si="0">AVERAGE(D2:D21)</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>-0.01</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6133333333333334</v>
-      </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>1.6887500000000002</v>
+        <v>0.49</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>1.8714285714285714</v>
+        <v>1.5772727272727272</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.57</v>
+        <v>1.7645454545454549</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0379999999999998</v>
+        <v>-1.3244444444444445</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1066666666666667</v>
+        <v>-1.6385714285714283</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.97555555555555573</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4260000000000002</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>0.21999999999999997</v>
+        <v>-4.3783333333333339</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="0"/>
-        <v>0.65500000000000014</v>
+        <v>0.58200000000000007</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6375</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="0"/>
-        <v>-14.493</v>
+        <v>1.1480000000000001</v>
       </c>
       <c r="R22" s="1">
-        <f>AVERAGE(R2:R21)</f>
-        <v>-2.1100000000000003</v>
+        <f t="shared" si="0"/>
+        <v>-1.3759999999999999</v>
       </c>
       <c r="S22" s="1">
-        <f>AVERAGE(S2:S21)</f>
-        <v>-1.1133333333333333</v>
+        <f t="shared" si="0"/>
+        <v>-11.307142857142859</v>
       </c>
       <c r="T22" s="1">
+        <f>AVERAGE(T2:T21)</f>
+        <v>-1.8128571428571427</v>
+      </c>
+      <c r="U22" s="1">
+        <f>AVERAGE(U2:U21)</f>
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="0"/>
         <v>0.89666666666666683</v>
       </c>
-      <c r="U22" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.023333333333333</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.8957142857142855</v>
-      </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.12799999999999997</v>
+        <v>-1.861</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="0"/>
-        <v>1.7833333333333332</v>
+        <v>-2.7763636363636364</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="0"/>
-        <v>1.7466666666666668</v>
+        <v>-0.36777777777777759</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="0"/>
-        <v>3.2455555555555553</v>
+        <v>1.514</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3866666666666667</v>
+        <v>1.4819999999999998</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="0"/>
-        <v>5.1287500000000001</v>
+        <v>2.8971428571428572</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>0.76666666666666661</v>
+        <v>-1.28</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="0"/>
-        <v>2.4024999999999999</v>
+        <v>4.2938461538461539</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2559999999999998</v>
+        <v>0.54499999999999993</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.81666666666666654</v>
+        <v>2.0916666666666668</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="0"/>
-        <v>0.92799999999999994</v>
+        <v>-1.73875</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20400000000000001</v>
+        <v>-0.85666666666666658</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75499999999999989</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="0"/>
-        <v>-5.2000000000000005E-2</v>
+        <v>-0.19142857142857145</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" si="0"/>
-        <v>2.621428571428571</v>
+        <v>-8.3333333333333332E-3</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1533333333333333</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="AM22" s="1">
         <f t="shared" si="0"/>
-        <v>10.215999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+        <v>2.4136363636363636</v>
+      </c>
+      <c r="AN22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.02</v>
+      </c>
+      <c r="AO22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1013333333333346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
-        <v>0.46999999999999992</v>
+        <v>0.42499999999999993</v>
       </c>
       <c r="C23">
         <f>ABS(C22)</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:AM23" si="1">ABS(D22)</f>
-        <v>1.0425</v>
-      </c>
-      <c r="E23">
+        <f t="shared" ref="D23:AO23" si="1">ABS(D22)</f>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0.6133333333333334</v>
-      </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>1.6887500000000002</v>
+        <v>0.49</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.8714285714285714</v>
+        <v>1.5772727272727272</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.57</v>
+        <v>1.7645454545454549</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.0379999999999998</v>
+        <v>1.3244444444444445</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>1.1066666666666667</v>
+        <v>1.6385714285714283</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.97555555555555573</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>4.4260000000000002</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0.21999999999999997</v>
+        <v>4.3783333333333339</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.65500000000000014</v>
+        <v>0.58200000000000007</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>1.6375</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>14.493</v>
+        <v>1.1480000000000001</v>
       </c>
       <c r="R23">
-        <f>ABS(R22)</f>
-        <v>2.1100000000000003</v>
+        <f t="shared" si="1"/>
+        <v>1.3759999999999999</v>
       </c>
       <c r="S23">
-        <f>ABS(S22)</f>
-        <v>1.1133333333333333</v>
+        <f t="shared" si="1"/>
+        <v>11.307142857142859</v>
       </c>
       <c r="T23">
+        <f>ABS(T22)</f>
+        <v>1.8128571428571427</v>
+      </c>
+      <c r="U23">
+        <f>ABS(U22)</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="1"/>
         <v>0.89666666666666683</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="1"/>
-        <v>2.023333333333333</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="1"/>
-        <v>2.8957142857142855</v>
-      </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>0.12799999999999997</v>
+        <v>1.861</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>1.7833333333333332</v>
+        <v>2.7763636363636364</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>1.7466666666666668</v>
+        <v>0.36777777777777759</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>3.2455555555555553</v>
+        <v>1.514</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>1.3866666666666667</v>
+        <v>1.4819999999999998</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>5.1287500000000001</v>
+        <v>2.8971428571428572</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>0.76666666666666661</v>
+        <v>1.28</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>2.4024999999999999</v>
+        <v>4.2938461538461539</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>1.2559999999999998</v>
+        <v>0.54499999999999993</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>0.81666666666666654</v>
+        <v>2.0916666666666668</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>0.92799999999999994</v>
+        <v>1.73875</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.20400000000000001</v>
+        <v>0.85666666666666658</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75499999999999989</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>5.2000000000000005E-2</v>
+        <v>0.19142857142857145</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>2.621428571428571</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>2.1533333333333333</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>10.215999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+        <v>2.4136363636363636</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>2.02</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="1"/>
+        <v>9.1013333333333346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <f>B23/(AVERAGE($B$23:$AM$23))</f>
-        <v>0.23494808373588291</v>
+        <f>B23/(AVERAGE($B$23:$AO$23))</f>
+        <v>0.23890325811570032</v>
       </c>
       <c r="C24">
-        <f>C23/(AVERAGE($B$23:$AM$23))</f>
-        <v>2.4994476993179037E-2</v>
+        <f>C23/(AVERAGE($B$23:$AO$23))</f>
+        <v>3.3727518792804757E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:AM24" si="2">D23/(AVERAGE($B$23:$AM$23))</f>
-        <v>0.52113484530778298</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>4.9988953986358081E-3</v>
+        <f t="shared" ref="D24:AO24" si="2">D23/(AVERAGE($B$23:$AO$23))</f>
+        <v>0.42833948866862037</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.30659891778299625</v>
+        <v>5.6212531321341262E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.84418846044462215</v>
+        <v>0.27544140347457219</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.93550756745898689</v>
+        <v>0.88662492584115526</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.78482657758582186</v>
+        <v>0.99189566631566728</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>1.0187748822419775</v>
+        <v>0.74450374816709763</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.55321109078236275</v>
+        <v>0.92108247750826311</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.12497238496589519</v>
+        <v>0.54838447222375153</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>2.2125111034362086</v>
+        <v>0.13603432579764585</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.10997569876998776</v>
+        <v>2.461171996352725</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.32742764861064549</v>
+        <v>0.32715693229020615</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.81856912152661354</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>7.2448991012428765</v>
+        <v>0.64531985956899773</v>
       </c>
       <c r="R24">
-        <f>R23/(AVERAGE($B$23:$AM$23))</f>
-        <v>1.0547669291121555</v>
+        <f t="shared" si="2"/>
+        <v>0.77348443098165565</v>
       </c>
       <c r="S24">
-        <f>S23/(AVERAGE($B$23:$AM$23))</f>
-        <v>0.55654368771478657</v>
+        <f t="shared" si="2"/>
+        <v>6.3560312201202303</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
-        <v>0.44823428741101085</v>
+        <f>T23/(AVERAGE($B$23:$AO$23))</f>
+        <v>1.0190528892397437</v>
       </c>
       <c r="U24">
-        <f t="shared" si="2"/>
-        <v>1.0114431689906449</v>
+        <f>U23/(AVERAGE($B$23:$AO$23))</f>
+        <v>0.34008581449411462</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>1.4475372818621117</v>
+        <v>0.5040390308480267</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>6.398586110253833E-2</v>
+        <v>1.0461152078901608</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>0.89146967942338562</v>
+        <v>1.5606642786852383</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.87314039629505447</v>
+        <v>0.20673719852626607</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>1.6224192732683549</v>
+        <v>0.85105772420510661</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.69318016194416532</v>
+        <v>0.83306971418227738</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>2.56380847757534</v>
+        <v>1.6285573359954297</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.38324864722874524</v>
+        <v>0.71952040091316816</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>1.2009846195222527</v>
+        <v>2.4136796141209764</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.62786126206865733</v>
+        <v>0.30635829570130985</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.40824312422192421</v>
+        <v>1.1757787801380548</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.46389749299340294</v>
+        <v>0.9773953883498212</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.10197746613217049</v>
+        <v>0.48155401831949007</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.42440461147612646</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>2.5994256072906202E-2</v>
+        <v>0.10760684567228185</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>1.3104247223566723</v>
+        <v>4.6843776101117719E-3</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>1.0764288091729106</v>
+        <v>1.7566416037919145E-2</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>5.1068715392463409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+        <v>1.3567660968923732</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="2"/>
+        <v>1.1354931326910935</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="2"/>
+        <v>5.116089850659673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2403,6 +2741,11 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,6 +1998,120 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0.63</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>1.55</v>
+      </c>
+      <c r="E14">
+        <v>0.06</v>
+      </c>
+      <c r="F14">
+        <v>-0.02</v>
+      </c>
+      <c r="G14">
+        <v>1.62</v>
+      </c>
+      <c r="H14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I14">
+        <v>2.56</v>
+      </c>
+      <c r="J14">
+        <v>5.78</v>
+      </c>
+      <c r="K14">
+        <v>9.08</v>
+      </c>
+      <c r="L14">
+        <v>6.11</v>
+      </c>
+      <c r="M14">
+        <v>8.11</v>
+      </c>
+      <c r="O14">
+        <v>8.81</v>
+      </c>
+      <c r="P14">
+        <v>-1.87</v>
+      </c>
+      <c r="Q14">
+        <v>0.65</v>
+      </c>
+      <c r="R14">
+        <v>-0.37</v>
+      </c>
+      <c r="S14">
+        <v>-2</v>
+      </c>
+      <c r="T14">
+        <v>-0.15</v>
+      </c>
+      <c r="U14">
+        <v>1.55</v>
+      </c>
+      <c r="W14">
+        <v>-1.04</v>
+      </c>
+      <c r="X14">
+        <v>-3.59</v>
+      </c>
+      <c r="Y14">
+        <v>5.58</v>
+      </c>
+      <c r="Z14">
+        <v>5.9</v>
+      </c>
+      <c r="AA14">
+        <v>5.78</v>
+      </c>
+      <c r="AB14">
+        <v>9.6</v>
+      </c>
+      <c r="AC14">
+        <v>3.36</v>
+      </c>
+      <c r="AD14">
+        <v>9.67</v>
+      </c>
+      <c r="AE14">
+        <v>4.17</v>
+      </c>
+      <c r="AF14">
+        <v>7.01</v>
+      </c>
+      <c r="AG14">
+        <v>5.75</v>
+      </c>
+      <c r="AH14">
+        <v>-0.42</v>
+      </c>
+      <c r="AI14">
+        <v>1.06</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.23</v>
+      </c>
+      <c r="AK14">
+        <v>-0.16</v>
+      </c>
+      <c r="AL14">
+        <v>0.01</v>
+      </c>
+      <c r="AM14">
+        <v>3.32</v>
+      </c>
+      <c r="AN14">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AO14">
+        <v>-3.03</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2253,47 +2367,47 @@
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
-        <v>0.42499999999999993</v>
+        <v>0.44363636363636355</v>
       </c>
       <c r="C22" s="1">
         <f>AVERAGE(C2:C21)</f>
-        <v>-0.06</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:AO22" si="0">AVERAGE(D2:D21)</f>
-        <v>0.76200000000000001</v>
+        <v>0.89333333333333342</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
+        <v>-1.1111111111111112E-2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>0.49</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>1.5772727272727272</v>
+        <v>1.615</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>1.7645454545454549</v>
+        <v>1.8308333333333333</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3244444444444445</v>
+        <v>-0.6140000000000001</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6385714285714283</v>
+        <v>-0.2987499999999999</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.97555555555555573</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.24199999999999999</v>
+        <v>1.1499999999999997</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
@@ -2301,27 +2415,27 @@
       </c>
       <c r="O22" s="1">
         <f t="shared" si="0"/>
-        <v>0.58200000000000007</v>
+        <v>1.9533333333333334</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="0"/>
-        <v>1.1480000000000001</v>
+        <v>0.87363636363636354</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3759999999999999</v>
+        <v>-1.2083333333333333</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="0"/>
-        <v>-11.307142857142859</v>
+        <v>-10.686666666666667</v>
       </c>
       <c r="T22" s="1">
         <f>AVERAGE(T2:T21)</f>
-        <v>-1.8128571428571427</v>
+        <v>-1.605</v>
       </c>
       <c r="U22" s="1">
         <f>AVERAGE(U2:U21)</f>
-        <v>-0.60499999999999998</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="0"/>
@@ -2329,79 +2443,79 @@
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.861</v>
+        <v>-1.7863636363636362</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.7763636363636364</v>
+        <v>-2.8441666666666663</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.36777777777777759</v>
+        <v>0.22700000000000015</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="0"/>
-        <v>1.514</v>
+        <v>2.2449999999999997</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="0"/>
-        <v>1.4819999999999998</v>
+        <v>2.1983333333333337</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="0"/>
-        <v>2.8971428571428572</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.28</v>
+        <v>-0.61714285714285722</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="0"/>
-        <v>4.2938461538461539</v>
+        <v>4.6778571428571434</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="0"/>
-        <v>0.54499999999999993</v>
+        <v>1.27</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="0"/>
-        <v>2.0916666666666668</v>
+        <v>2.794285714285714</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.73875</v>
+        <v>-0.90666666666666673</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.85666666666666658</v>
+        <v>-0.79428571428571437</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>0.75499999999999989</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.19142857142857145</v>
+        <v>-0.19625000000000001</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" si="0"/>
-        <v>-8.3333333333333332E-3</v>
+        <v>-3.0000000000000002E-2</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>-3.125E-2</v>
+        <v>-2.6666666666666668E-2</v>
       </c>
       <c r="AM22" s="1">
         <f t="shared" si="0"/>
-        <v>2.4136363636363636</v>
+        <v>2.4891666666666663</v>
       </c>
       <c r="AN22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.02</v>
+        <v>-1.875</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="0"/>
-        <v>9.1013333333333346</v>
+        <v>8.3431250000000006</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -2410,47 +2524,47 @@
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
-        <v>0.42499999999999993</v>
+        <v>0.44363636363636355</v>
       </c>
       <c r="C23">
         <f>ABS(C22)</f>
-        <v>0.06</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:AO23" si="1">ABS(D22)</f>
-        <v>0.76200000000000001</v>
+        <v>0.89333333333333342</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0.49</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.5772727272727272</v>
+        <v>1.615</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.7645454545454549</v>
+        <v>1.8308333333333333</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>1.3244444444444445</v>
+        <v>0.6140000000000001</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>1.6385714285714283</v>
+        <v>0.2987499999999999</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.97555555555555573</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.24199999999999999</v>
+        <v>1.1499999999999997</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
@@ -2458,27 +2572,27 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>0.58200000000000007</v>
+        <v>1.9533333333333334</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>1.1480000000000001</v>
+        <v>0.87363636363636354</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>1.3759999999999999</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>11.307142857142859</v>
+        <v>10.686666666666667</v>
       </c>
       <c r="T23">
         <f>ABS(T22)</f>
-        <v>1.8128571428571427</v>
+        <v>1.605</v>
       </c>
       <c r="U23">
         <f>ABS(U22)</f>
-        <v>0.60499999999999998</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
@@ -2486,79 +2600,79 @@
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
-        <v>1.861</v>
+        <v>1.7863636363636362</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>2.7763636363636364</v>
+        <v>2.8441666666666663</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>0.36777777777777759</v>
+        <v>0.22700000000000015</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>1.514</v>
+        <v>2.2449999999999997</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>1.4819999999999998</v>
+        <v>2.1983333333333337</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>2.8971428571428572</v>
+        <v>3.3440000000000003</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>1.28</v>
+        <v>0.61714285714285722</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
-        <v>4.2938461538461539</v>
+        <v>4.6778571428571434</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>0.54499999999999993</v>
+        <v>1.27</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>2.0916666666666668</v>
+        <v>2.794285714285714</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>1.73875</v>
+        <v>0.90666666666666673</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.85666666666666658</v>
+        <v>0.79428571428571437</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.75499999999999989</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.19142857142857145</v>
+        <v>0.19625000000000001</v>
       </c>
       <c r="AK23">
         <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>2.4136363636363636</v>
+        <v>2.4891666666666663</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>9.1013333333333346</v>
+        <v>8.3431250000000006</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -2567,155 +2681,155 @@
       </c>
       <c r="B24">
         <f>B23/(AVERAGE($B$23:$AO$23))</f>
-        <v>0.23890325811570032</v>
+        <v>0.25118040135738384</v>
       </c>
       <c r="C24">
         <f>C23/(AVERAGE($B$23:$AO$23))</f>
-        <v>3.3727518792804757E-2</v>
+        <v>2.6044525222712347E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:AO24" si="2">D23/(AVERAGE($B$23:$AO$23))</f>
-        <v>0.42833948866862037</v>
+        <v>0.5057922289628195</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>5.6212531321341262E-3</v>
+        <v>6.290948121428103E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.27544140347457219</v>
+        <v>0.40538869694482693</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.88662492584115526</v>
+        <v>0.91438930944957475</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.99189566631566728</v>
+        <v>1.0365909767083157</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>0.74450374816709763</v>
+        <v>0.34763779319011701</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.92108247750826311</v>
+        <v>0.16914786761489806</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.54838447222375153</v>
+        <v>0.15117148335791733</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.13603432579764585</v>
+        <v>0.65111313056780851</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>2.461171996352725</v>
+        <v>2.4789481072487445</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.32715693229020615</v>
+        <v>1.1059486797470606</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.64531985956899773</v>
+        <v>0.4946400936566514</v>
       </c>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0.77348443098165565</v>
+        <v>0.6841406082053062</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>6.3560312201202303</v>
+        <v>6.0506339031895502</v>
       </c>
       <c r="T24">
         <f>T23/(AVERAGE($B$23:$AO$23))</f>
-        <v>1.0190528892397437</v>
+        <v>0.90872745614028949</v>
       </c>
       <c r="U24">
         <f>U23/(AVERAGE($B$23:$AO$23))</f>
-        <v>0.34008581449411462</v>
+        <v>9.851624758156409E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>0.5040390308480267</v>
+        <v>0.50767951339924799</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>1.0461152078901608</v>
+        <v>1.0114128866132361</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>1.5606642786852383</v>
+        <v>1.6103254453825584</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>0.20673719852626607</v>
+        <v>0.12852407012077621</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.85105772420510661</v>
+        <v>1.2710860679345479</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>0.83306971418227738</v>
+        <v>1.2446640858245503</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>1.6285573359954297</v>
+        <v>1.8933237466250021</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>0.71952040091316816</v>
+        <v>0.34941723280160669</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>2.4136796141209764</v>
+        <v>2.648534094464956</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>0.30635829570130985</v>
+        <v>0.71905537027923216</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>1.1757787801380548</v>
+        <v>1.5820835818517187</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>0.9773953883498212</v>
+        <v>0.51334136670853325</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.48155401831949007</v>
+        <v>0.44971291999466045</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.42440461147612646</v>
+        <v>0.4466573166213953</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.10760684567228185</v>
+        <v>0.11111387119472388</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>4.6843776101117719E-3</v>
+        <v>1.698555992785588E-2</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>1.7566416037919145E-2</v>
+        <v>1.5098275491427449E-2</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>1.3567660968923732</v>
+        <v>1.4093296529029307</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>1.1354931326910935</v>
+        <v>1.0615974954909924</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>5.116089850659673</v>
+        <v>4.7237549891030861</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413656DE-114D-430E-95D9-3F5671B5C594}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>d1qlong</t>
   </si>
@@ -103,9 +104,6 @@
     <t>Command</t>
   </si>
   <si>
-    <t>reg index eq4squared eq4cubed eq6 eq6cubed employer male unemployed _region3 _region5 _income9 _stem2 _industry2 _industry4 _industry5 _industry6  _industry9- _industry12 _age2 cprovider1 cprovider2</t>
-  </si>
-  <si>
     <t>reg index eq* boughtSample employer male unemployed _region* _income* _stem* _industry* _age* cage* cincome* cprovider*</t>
   </si>
   <si>
@@ -133,12 +131,6 @@
     <t>reg index eq4 eq6 eq6cubed male unemployed _region3 _region5 _region6 _region8 _income6 _stem2 _industry6 _industry9 _industry11 cage2 cage3 cincome2 cincome3 cprovider1</t>
   </si>
   <si>
-    <t>reg index eq4squared eq4cubed eq6 eq6cubed _industry6  _industry9</t>
-  </si>
-  <si>
-    <t>reg index eq4squared eq4cubed eq6 eq6cubed male unemployed _region3 _region5 _industry4 _industry6  _industry9 _industry12 cprovider1</t>
-  </si>
-  <si>
     <t>reg q2 eq6squared eq6cubed _income2 _industry6 _industry9</t>
   </si>
   <si>
@@ -308,12 +300,15 @@
   </si>
   <si>
     <t>d1ilong*</t>
+  </si>
+  <si>
+    <t>eq4c*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,20 +639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="A14:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="B15:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -694,10 +689,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -714,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -734,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -754,10 +749,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -774,10 +769,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -794,10 +789,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -814,10 +809,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -834,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -854,10 +849,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -874,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -894,10 +889,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -914,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -934,72 +929,27 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.39</v>
-      </c>
-      <c r="C15">
-        <v>0.21</v>
-      </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.35</v>
-      </c>
-      <c r="C16">
-        <v>0.25</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0.22</v>
-      </c>
-      <c r="C17">
-        <v>0.18</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.34</v>
@@ -1014,12 +964,12 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.32</v>
@@ -1034,12 +984,12 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.28000000000000003</v>
@@ -1054,12 +1004,12 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.17</v>
@@ -1074,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1083,171 +1033,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" customWidth="1"/>
-    <col min="35" max="36" width="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.26953125" customWidth="1"/>
+    <col min="31" max="31" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.26953125" customWidth="1"/>
+    <col min="36" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AK1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AL1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1257,116 +1211,116 @@
       <c r="C2">
         <v>-0.09</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.36</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.01</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.12</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.73</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-1.08</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-0.81</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-1.06</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-0.65</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-0.44</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>-0.42</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.58</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-1.55</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>-9.1300000000000008</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-1.67</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>-0.25</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>-1.53</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>-1.93</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.03</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.2</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1.78</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>-0.94</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1.85</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>-0.12</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>-0.13</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-2.72</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-0.48</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>-0.03</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.09</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>-0.01</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2.17</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-2.12</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1376,80 +1330,80 @@
       <c r="C3">
         <v>-0.03</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.82</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.22</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.47</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.81</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-1.23</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-1.06</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.97</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.66</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-1.93</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>-9.9600000000000009</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>-2.33</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>-1.71</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-1.86</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-2.66</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-1.97</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1.68</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.92</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1.44</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-2.96</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.82</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.11</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.01</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.44</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1459,73 +1413,73 @@
       <c r="C4">
         <v>-0.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.31</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-0.93</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-0.81</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.41</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-1.68</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-8.93</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-1.06</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-2.11</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-3.14</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-1.78</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1.61</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-3.65</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.15</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1.43</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-6.41</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2.06</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>5.59</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1535,466 +1489,466 @@
       <c r="C6">
         <v>-0.09</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.36</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.01</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.12</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.73</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.64</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-0.37</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-0.62</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-0.21</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.02</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.9</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.24</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-0.33</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.19</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.92</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-1.53</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-1.93</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.03</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.2</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1.78</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-0.94</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1.85</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-0.12</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-0.13</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-2.72</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-0.48</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-0.03</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-0.05</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.01</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2.17</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-2.12</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>5.38</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.17</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.11</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.01</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.69</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.99</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-0.91</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-0.73</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.96</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.34</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.7</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-1.2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-2.04</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1.7</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1.47</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-1.28</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1.56</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-2.42</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-0.98</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-0.05</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>0.41</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>5.36</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0.18</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.01</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.87</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-0.79</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.85</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.35</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-1.36</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-2.1</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-1.69</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1.71</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-1.3</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1.86</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-2.4900000000000002</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-1.23</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>5.14</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.01</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.84</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>3.2</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>4.78</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.68</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.44</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.13</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.59</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-2.7</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-4.41</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1.96</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-8.2200000000000006</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-1.94</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-16.170000000000002</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.84</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-1.17</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-3.37</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3.51</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3.29</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3.4</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6.46</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>7.07</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1.91</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>5</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3.47</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1.05</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-0.23</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.01</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>3.44</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-1.02</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>7.88</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.54</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.01</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.58</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.69</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-2.64</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1.99</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-7.19</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-17.41</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-2.13</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>4.72</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>4.82</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1.17</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-0.25</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>0.01</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1.65</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>9.49</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.43</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.31</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.01</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-20.93</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>4.49</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>8.09</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>12.65</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2004,366 +1958,366 @@
       <c r="C14">
         <v>0.01</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.55</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.06</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.02</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.62</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.56</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.78</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>9.08</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6.11</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>8.11</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8.81</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-1.87</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.65</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-0.37</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-0.15</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.55</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-1.04</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-3.59</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>5.58</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5.9</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5.78</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>9.6</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3.36</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>9.67</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>4.17</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>7.01</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>5.75</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-0.42</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.06</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-0.23</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-0.16</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.01</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3.32</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>-3.03</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I18">
+        <v>1.62</v>
+      </c>
+      <c r="J18">
+        <v>2.79</v>
+      </c>
+      <c r="K18">
+        <v>-0.43</v>
+      </c>
+      <c r="L18">
+        <v>-0.02</v>
+      </c>
+      <c r="M18">
+        <v>0.53</v>
+      </c>
+      <c r="N18">
+        <v>1.52</v>
+      </c>
+      <c r="O18">
+        <v>-2.14</v>
+      </c>
+      <c r="P18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>-0.21</v>
+      </c>
+      <c r="S18">
+        <v>-1.39</v>
+      </c>
+      <c r="T18">
+        <v>-19.75</v>
+      </c>
+      <c r="U18">
+        <v>-2.71</v>
+      </c>
+      <c r="V18">
+        <v>0.04</v>
+      </c>
+      <c r="W18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X18">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>-3</v>
+      </c>
+      <c r="Z18">
+        <v>1.53</v>
+      </c>
+      <c r="AA18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB18">
+        <v>1.64</v>
+      </c>
+      <c r="AC18">
+        <v>3.46</v>
+      </c>
+      <c r="AD18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AE18">
+        <v>6.11</v>
+      </c>
+      <c r="AF18">
+        <v>0.51</v>
+      </c>
+      <c r="AG18">
+        <v>2.48</v>
+      </c>
+      <c r="AH18">
+        <v>-0.42</v>
+      </c>
+      <c r="AI18">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AJ18">
+        <v>1.19</v>
+      </c>
+      <c r="AK18">
+        <v>-0.26</v>
+      </c>
+      <c r="AL18">
+        <v>0.08</v>
+      </c>
+      <c r="AM18">
+        <v>-0.26</v>
+      </c>
+      <c r="AN18">
+        <v>6.81</v>
+      </c>
+      <c r="AO18">
+        <v>-3.32</v>
+      </c>
+      <c r="AP18">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="G18">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H18">
-        <v>1.62</v>
-      </c>
-      <c r="I18">
-        <v>2.79</v>
-      </c>
-      <c r="J18">
-        <v>-0.43</v>
-      </c>
-      <c r="K18">
-        <v>-0.02</v>
-      </c>
-      <c r="L18">
-        <v>0.53</v>
-      </c>
-      <c r="M18">
-        <v>1.52</v>
-      </c>
-      <c r="N18">
-        <v>-2.14</v>
-      </c>
-      <c r="O18">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="P18">
-        <v>-0.21</v>
-      </c>
-      <c r="R18">
-        <v>-1.39</v>
-      </c>
-      <c r="S18">
-        <v>-19.75</v>
-      </c>
-      <c r="T18">
-        <v>-2.71</v>
-      </c>
-      <c r="U18">
-        <v>0.04</v>
-      </c>
-      <c r="V18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W18">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="X18">
-        <v>-3</v>
-      </c>
-      <c r="Y18">
-        <v>1.53</v>
-      </c>
-      <c r="Z18">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AA18">
-        <v>1.64</v>
-      </c>
-      <c r="AB18">
-        <v>3.46</v>
-      </c>
-      <c r="AC18">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="AD18">
-        <v>6.11</v>
-      </c>
-      <c r="AE18">
-        <v>0.51</v>
-      </c>
-      <c r="AF18">
-        <v>2.48</v>
-      </c>
-      <c r="AG18">
-        <v>-0.42</v>
-      </c>
-      <c r="AH18">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="AI18">
-        <v>1.19</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.26</v>
-      </c>
-      <c r="AK18">
-        <v>0.08</v>
-      </c>
-      <c r="AL18">
-        <v>-0.26</v>
-      </c>
-      <c r="AM18">
-        <v>6.81</v>
-      </c>
-      <c r="AN18">
-        <v>-3.32</v>
-      </c>
-      <c r="AO18">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I19">
+        <v>2.42</v>
+      </c>
+      <c r="J19">
+        <v>2.85</v>
+      </c>
+      <c r="O19">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="P19">
+        <v>2.23</v>
+      </c>
+      <c r="T19">
+        <v>-19.27</v>
+      </c>
+      <c r="U19">
+        <v>-2.34</v>
+      </c>
+      <c r="X19">
+        <v>-2.38</v>
+      </c>
+      <c r="Y19">
+        <v>-3.62</v>
+      </c>
+      <c r="Z19">
+        <v>2.65</v>
+      </c>
+      <c r="AA19">
+        <v>2.19</v>
+      </c>
+      <c r="AB19">
+        <v>1.97</v>
+      </c>
+      <c r="AC19">
+        <v>4.21</v>
+      </c>
+      <c r="AE19">
+        <v>6.32</v>
+      </c>
+      <c r="AG19">
+        <v>3.07</v>
+      </c>
+      <c r="AJ19">
+        <v>1.48</v>
+      </c>
+      <c r="AK19">
+        <v>-0.32</v>
+      </c>
+      <c r="AN19">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AO19">
+        <v>-1.52</v>
+      </c>
+      <c r="AP19">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="H19">
-        <v>2.42</v>
-      </c>
-      <c r="I19">
-        <v>2.85</v>
-      </c>
-      <c r="N19">
+      <c r="I20">
+        <v>2.02</v>
+      </c>
+      <c r="J20">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O20">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="O19">
-        <v>2.23</v>
-      </c>
-      <c r="S19">
-        <v>-19.27</v>
-      </c>
-      <c r="T19">
-        <v>-2.34</v>
-      </c>
-      <c r="W19">
-        <v>-2.38</v>
-      </c>
-      <c r="X19">
-        <v>-3.62</v>
-      </c>
-      <c r="Y19">
-        <v>2.65</v>
-      </c>
-      <c r="Z19">
-        <v>2.19</v>
-      </c>
-      <c r="AA19">
-        <v>1.97</v>
-      </c>
-      <c r="AB19">
-        <v>4.21</v>
-      </c>
-      <c r="AD19">
-        <v>6.32</v>
-      </c>
-      <c r="AF19">
-        <v>3.07</v>
-      </c>
-      <c r="AI19">
-        <v>1.48</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.32</v>
-      </c>
-      <c r="AM19">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="AN19">
-        <v>-1.52</v>
-      </c>
-      <c r="AO19">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="T20">
+        <v>-18.850000000000001</v>
+      </c>
+      <c r="U20">
+        <v>-2.27</v>
+      </c>
+      <c r="X20">
+        <v>-2.92</v>
+      </c>
+      <c r="Y20">
+        <v>-3.46</v>
+      </c>
+      <c r="AC20">
+        <v>2.95</v>
+      </c>
+      <c r="AE20">
+        <v>5.36</v>
+      </c>
+      <c r="AJ20">
+        <v>1.26</v>
+      </c>
+      <c r="AK20">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AN20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP20">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
-        <v>2.02</v>
-      </c>
-      <c r="I20">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="N20">
-        <v>-4.1399999999999997</v>
-      </c>
-      <c r="S20">
-        <v>-18.850000000000001</v>
-      </c>
-      <c r="T20">
-        <v>-2.27</v>
-      </c>
-      <c r="W20">
-        <v>-2.92</v>
-      </c>
-      <c r="X20">
-        <v>-3.46</v>
-      </c>
-      <c r="AB20">
-        <v>2.95</v>
-      </c>
-      <c r="AD20">
-        <v>5.36</v>
-      </c>
-      <c r="AI20">
-        <v>1.26</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="AM20">
+      <c r="I21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AO20">
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S21">
+      <c r="T21">
         <v>-17.39</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>6.29</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1.54</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>17.09</v>
       </c>
     </row>
-    <row r="22" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
@@ -2373,154 +2327,154 @@
         <f>AVERAGE(C2:C21)</f>
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:AO22" si="0">AVERAGE(D2:D21)</f>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:AP22" si="0">AVERAGE(E2:E21)</f>
         <v>0.89333333333333342</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>-1.1111111111111112E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="0"/>
         <v>1.615</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="0"/>
         <v>1.8308333333333333</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>-0.6140000000000001</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>-0.2987499999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="0"/>
         <v>-0.26700000000000002</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>1.1499999999999997</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="0"/>
         <v>-4.3783333333333339</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="0"/>
         <v>1.9533333333333334</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="0"/>
         <v>0.87363636363636354</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="0"/>
         <v>-1.2083333333333333</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <f t="shared" si="0"/>
         <v>-10.686666666666667</v>
-      </c>
-      <c r="T22" s="1">
-        <f>AVERAGE(T2:T21)</f>
-        <v>-1.605</v>
       </c>
       <c r="U22" s="1">
         <f>AVERAGE(U2:U21)</f>
+        <v>-1.605</v>
+      </c>
+      <c r="V22" s="1">
+        <f>AVERAGE(V2:V21)</f>
         <v>-0.17399999999999999</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <f t="shared" si="0"/>
         <v>0.89666666666666683</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <f t="shared" si="0"/>
         <v>-1.7863636363636362</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <f t="shared" si="0"/>
         <v>-2.8441666666666663</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <f t="shared" si="0"/>
         <v>0.22700000000000015</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <f t="shared" si="0"/>
         <v>2.2449999999999997</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <f t="shared" si="0"/>
         <v>2.1983333333333337</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <f t="shared" si="0"/>
         <v>3.3440000000000003</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <f t="shared" si="0"/>
         <v>-0.61714285714285722</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <f t="shared" si="0"/>
         <v>4.6778571428571434</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AF22" s="1">
         <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <f t="shared" si="0"/>
         <v>2.794285714285714</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <f t="shared" si="0"/>
         <v>-0.90666666666666673</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AI22" s="1">
         <f t="shared" si="0"/>
         <v>-0.79428571428571437</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <f t="shared" si="0"/>
         <v>0.78888888888888886</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <f t="shared" si="0"/>
         <v>-0.19625000000000001</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AL22" s="1">
         <f t="shared" si="0"/>
         <v>-3.0000000000000002E-2</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <f t="shared" si="0"/>
         <v>-2.6666666666666668E-2</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AN22" s="1">
         <f t="shared" si="0"/>
         <v>2.4891666666666663</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AO22" s="1">
         <f t="shared" si="0"/>
         <v>-1.875</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AP22" s="1">
         <f t="shared" si="0"/>
         <v>8.3431250000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
@@ -2530,336 +2484,336 @@
         <f>ABS(C22)</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:AO23" si="1">ABS(D22)</f>
+      <c r="E23">
+        <f t="shared" ref="E23:AP23" si="1">ABS(E22)</f>
         <v>0.89333333333333342</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>0.71599999999999997</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>1.615</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>1.8308333333333333</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>0.6140000000000001</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="1"/>
         <v>0.2987499999999999</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="1"/>
         <v>0.26700000000000002</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>1.1499999999999997</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="1"/>
         <v>4.3783333333333339</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="1"/>
         <v>1.9533333333333334</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>0.87363636363636354</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="1"/>
         <v>1.2083333333333333</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="1"/>
         <v>10.686666666666667</v>
-      </c>
-      <c r="T23">
-        <f>ABS(T22)</f>
-        <v>1.605</v>
       </c>
       <c r="U23">
         <f>ABS(U22)</f>
+        <v>1.605</v>
+      </c>
+      <c r="V23">
+        <f>ABS(V22)</f>
         <v>0.17399999999999999</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f t="shared" si="1"/>
         <v>0.89666666666666683</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f t="shared" si="1"/>
         <v>1.7863636363636362</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="1"/>
         <v>2.8441666666666663</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f t="shared" si="1"/>
         <v>0.22700000000000015</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="1"/>
         <v>2.2449999999999997</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f t="shared" si="1"/>
         <v>2.1983333333333337</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f t="shared" si="1"/>
         <v>3.3440000000000003</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <f t="shared" si="1"/>
         <v>0.61714285714285722</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f t="shared" si="1"/>
         <v>4.6778571428571434</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f t="shared" si="1"/>
         <v>1.27</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <f t="shared" si="1"/>
         <v>2.794285714285714</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <f t="shared" si="1"/>
         <v>0.90666666666666673</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <f t="shared" si="1"/>
         <v>0.79428571428571437</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <f t="shared" si="1"/>
         <v>0.78888888888888886</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <f t="shared" si="1"/>
         <v>0.19625000000000001</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <f t="shared" si="1"/>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <f t="shared" si="1"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <f t="shared" si="1"/>
         <v>2.4891666666666663</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <f t="shared" si="1"/>
         <v>8.3431250000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <f>B23/(AVERAGE($B$23:$AO$23))</f>
+        <f>B23/(AVERAGE($B$23:$AP$23))</f>
         <v>0.25118040135738384</v>
       </c>
       <c r="C24">
-        <f>C23/(AVERAGE($B$23:$AO$23))</f>
+        <f>C23/(AVERAGE($B$23:$AP$23))</f>
         <v>2.6044525222712347E-2</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:AO24" si="2">D23/(AVERAGE($B$23:$AO$23))</f>
+      <c r="E24">
+        <f t="shared" ref="E24:AP24" si="2">E23/(AVERAGE($B$23:$AP$23))</f>
         <v>0.5057922289628195</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>6.290948121428103E-3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>0.40538869694482693</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>0.91438930944957475</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>1.0365909767083157</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="2"/>
         <v>0.34763779319011701</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>0.16914786761489806</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="2"/>
         <v>0.15117148335791733</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="2"/>
         <v>0.65111313056780851</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="2"/>
         <v>2.4789481072487445</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="2"/>
         <v>1.1059486797470606</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="2"/>
         <v>0.4946400936566514</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>0.6841406082053062</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="2"/>
         <v>6.0506339031895502</v>
       </c>
-      <c r="T24">
-        <f>T23/(AVERAGE($B$23:$AO$23))</f>
+      <c r="U24">
+        <f>U23/(AVERAGE($B$23:$AP$23))</f>
         <v>0.90872745614028949</v>
       </c>
-      <c r="U24">
-        <f>U23/(AVERAGE($B$23:$AO$23))</f>
+      <c r="V24">
+        <f>V23/(AVERAGE($B$23:$AP$23))</f>
         <v>9.851624758156409E-2</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f t="shared" si="2"/>
         <v>0.50767951339924799</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f t="shared" si="2"/>
         <v>1.0114128866132361</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f t="shared" si="2"/>
         <v>1.6103254453825584</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f t="shared" si="2"/>
         <v>0.12852407012077621</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f t="shared" si="2"/>
         <v>1.2710860679345479</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f t="shared" si="2"/>
         <v>1.2446640858245503</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f t="shared" si="2"/>
         <v>1.8933237466250021</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <f t="shared" si="2"/>
         <v>0.34941723280160669</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f t="shared" si="2"/>
         <v>2.648534094464956</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f t="shared" si="2"/>
         <v>0.71905537027923216</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <f t="shared" si="2"/>
         <v>1.5820835818517187</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <f t="shared" si="2"/>
         <v>0.51334136670853325</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <f t="shared" si="2"/>
         <v>0.44971291999466045</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <f t="shared" si="2"/>
         <v>0.4466573166213953</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <f t="shared" si="2"/>
         <v>0.11111387119472388</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <f t="shared" si="2"/>
         <v>1.698555992785588E-2</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <f t="shared" si="2"/>
         <v>1.5098275491427449E-2</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <f t="shared" si="2"/>
         <v>1.4093296529029307</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <f t="shared" si="2"/>
         <v>1.0615974954909924</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <f t="shared" si="2"/>
         <v>4.7237549891030861</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413656DE-114D-430E-95D9-3F5671B5C594}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F607E-CD9B-4089-8108-CD6017FF6529}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>d1qlong</t>
   </si>
@@ -131,6 +131,12 @@
     <t>reg index eq4 eq6 eq6cubed male unemployed _region3 _region5 _region6 _region8 _income6 _stem2 _industry6 _industry9 _industry11 cage2 cage3 cincome2 cincome3 cprovider1</t>
   </si>
   <si>
+    <t>reg index eq4squared eq4cubed eq6 eq6cubed _industry6  _industry9</t>
+  </si>
+  <si>
+    <t>reg index eq4squared eq4cubed eq6 eq6cubed male unemployed _region3 _region5 _industry4 _industry6  _industry9 _industry12 cprovider1</t>
+  </si>
+  <si>
     <t>reg q2 eq6squared eq6cubed _income2 _industry6 _industry9</t>
   </si>
   <si>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t>eq4c*</t>
+  </si>
+  <si>
+    <t>reg index eq4squared eq4cubed eq6 eq6cubed employer male unemployed _region3 _region5 _income9 _industry2 _industry4 _industry5 _industry6  _industry9- _industry12 _age2 cprovider1 cprovider2</t>
   </si>
 </sst>
 </file>
@@ -643,7 +652,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="B15:F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -729,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -749,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -789,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -809,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -829,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -909,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -936,16 +945,61 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0.39</v>
+      </c>
+      <c r="C15">
+        <v>0.21</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0.35</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>0.22</v>
+      </c>
+      <c r="C17">
+        <v>0.18</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -984,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1004,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1024,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1078,127 +1132,127 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>67</v>
-      </c>
       <c r="AP1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
@@ -1759,12 +1813,12 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0.55000000000000004</v>
@@ -2317,7 +2371,7 @@
     </row>
     <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
@@ -2474,7 +2528,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
@@ -2803,17 +2857,17 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F607E-CD9B-4089-8108-CD6017FF6529}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49A04B-4053-41AA-8CAA-1081362282F3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,6 +1543,9 @@
       <c r="C6">
         <v>-0.09</v>
       </c>
+      <c r="D6">
+        <v>-0.01</v>
+      </c>
       <c r="E6">
         <v>-0.36</v>
       </c>
@@ -2125,16 +2128,145 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>0.17</v>
+      </c>
+      <c r="D15">
+        <v>-0.01</v>
+      </c>
+      <c r="E15">
+        <v>1.37</v>
+      </c>
+      <c r="G15">
+        <v>-0.01</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15">
+        <v>1.87</v>
+      </c>
+      <c r="J15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K15">
+        <v>-2.4</v>
+      </c>
+      <c r="L15">
+        <v>-2.9</v>
+      </c>
+      <c r="V15">
+        <v>1.74</v>
+      </c>
+      <c r="Z15">
+        <v>2.25</v>
+      </c>
+      <c r="AA15">
+        <v>3.89</v>
+      </c>
+      <c r="AB15">
+        <v>2.98</v>
+      </c>
+      <c r="AC15">
+        <v>6.94</v>
+      </c>
+      <c r="AE15">
+        <v>8.73</v>
+      </c>
+      <c r="AF15">
+        <v>1.99</v>
+      </c>
+      <c r="AG15">
+        <v>3.74</v>
+      </c>
+      <c r="AH15">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AI15">
+        <v>-1.68</v>
+      </c>
+      <c r="AN15">
+        <v>3.78</v>
+      </c>
+      <c r="AO15">
+        <v>-1.18</v>
+      </c>
+      <c r="AP15">
+        <v>7.55</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>0.19</v>
+      </c>
+      <c r="D16">
+        <v>-0.02</v>
+      </c>
+      <c r="E16">
+        <v>1.38</v>
+      </c>
+      <c r="G16">
+        <v>-0.01</v>
+      </c>
+      <c r="I16">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J16">
+        <v>1.2</v>
+      </c>
+      <c r="K16">
+        <v>-2.1</v>
+      </c>
+      <c r="L16">
+        <v>-3.07</v>
+      </c>
+      <c r="AA16">
+        <v>2.02</v>
+      </c>
+      <c r="AC16">
+        <v>4.75</v>
+      </c>
+      <c r="AE16">
+        <v>7.11</v>
+      </c>
+      <c r="AH16">
+        <v>3.1</v>
+      </c>
+      <c r="AN16">
+        <v>1.6</v>
+      </c>
+      <c r="AP16">
+        <v>10.38</v>
+      </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>0.22</v>
+      </c>
+      <c r="D17">
+        <v>-0.02</v>
+      </c>
+      <c r="E17">
+        <v>1.31</v>
+      </c>
+      <c r="G17">
+        <v>-0.01</v>
+      </c>
+      <c r="AC17">
+        <v>3.4</v>
+      </c>
+      <c r="AE17">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="AP17">
+        <v>12.03</v>
+      </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -2379,35 +2511,35 @@
       </c>
       <c r="C22" s="1">
         <f>AVERAGE(C2:C21)</f>
-        <v>-4.5999999999999999E-2</v>
+        <v>4.3750000000000004E-2</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ref="E22:AP22" si="0">AVERAGE(E2:E21)</f>
-        <v>0.89333333333333342</v>
+        <v>1.0466666666666666</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1111111111111112E-2</v>
+        <v>-1.0833333333333334E-2</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.71599999999999997</v>
+        <v>0.79666666666666675</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>1.615</v>
+        <v>1.6657142857142857</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>1.8308333333333333</v>
+        <v>1.8028571428571429</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.6140000000000001</v>
+        <v>-0.88666666666666671</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.2987499999999999</v>
+        <v>-0.83599999999999997</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
@@ -2443,7 +2575,7 @@
       </c>
       <c r="V22" s="1">
         <f>AVERAGE(V2:V21)</f>
-        <v>-0.17399999999999999</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
@@ -2459,19 +2591,19 @@
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="0"/>
-        <v>0.22700000000000015</v>
+        <v>0.41090909090909106</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="0"/>
-        <v>2.2449999999999997</v>
+        <v>2.4225000000000003</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="0"/>
-        <v>2.1983333333333337</v>
+        <v>2.31</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" si="0"/>
-        <v>3.3440000000000003</v>
+        <v>3.625</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="0"/>
@@ -2479,23 +2611,23 @@
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="0"/>
-        <v>4.6778571428571434</v>
+        <v>5.3111764705882365</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="0"/>
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="0"/>
-        <v>2.794285714285714</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.90666666666666673</v>
+        <v>-3.363636363636361E-2</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79428571428571437</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="0"/>
@@ -2515,15 +2647,15 @@
       </c>
       <c r="AN22" s="1">
         <f t="shared" si="0"/>
-        <v>2.4891666666666663</v>
+        <v>2.5178571428571428</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.875</v>
+        <v>-1.7757142857142856</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="0"/>
-        <v>8.3431250000000006</v>
+        <v>8.6026315789473671</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.35">
@@ -2536,35 +2668,35 @@
       </c>
       <c r="C23">
         <f>ABS(C22)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>4.3750000000000004E-2</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:AP23" si="1">ABS(E22)</f>
-        <v>0.89333333333333342</v>
+        <v>1.0466666666666666</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>1.1111111111111112E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.71599999999999997</v>
+        <v>0.79666666666666675</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.615</v>
+        <v>1.6657142857142857</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>1.8308333333333333</v>
+        <v>1.8028571428571429</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.6140000000000001</v>
+        <v>0.88666666666666671</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.2987499999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
@@ -2600,7 +2732,7 @@
       </c>
       <c r="V23">
         <f>ABS(V22)</f>
-        <v>0.17399999999999999</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
@@ -2616,19 +2748,19 @@
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>0.22700000000000015</v>
+        <v>0.41090909090909106</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>2.2449999999999997</v>
+        <v>2.4225000000000003</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>2.1983333333333337</v>
+        <v>2.31</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>3.3440000000000003</v>
+        <v>3.625</v>
       </c>
       <c r="AD23">
         <f t="shared" si="1"/>
@@ -2636,23 +2768,23 @@
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>4.6778571428571434</v>
+        <v>5.3111764705882365</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>2.794285714285714</v>
+        <v>2.9125000000000001</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>0.90666666666666673</v>
+        <v>3.363636363636361E-2</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0.79428571428571437</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
@@ -2672,15 +2804,15 @@
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>2.4891666666666663</v>
+        <v>2.5178571428571428</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>1.875</v>
+        <v>1.7757142857142856</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>8.3431250000000006</v>
+        <v>8.6026315789473671</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.35">
@@ -2689,155 +2821,155 @@
       </c>
       <c r="B24">
         <f>B23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.25118040135738384</v>
+        <v>0.24360420433190796</v>
       </c>
       <c r="C24">
         <f>C23/(AVERAGE($B$23:$AP$23))</f>
-        <v>2.6044525222712347E-2</v>
+        <v>2.4023467896461217E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:AP24" si="2">E23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.5057922289628195</v>
+        <v>0.57473287005629115</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>6.290948121428103E-3</v>
+        <v>5.9486682410284913E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.40538869694482693</v>
+        <v>0.43745591064794137</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.91438930944957475</v>
+        <v>0.91465676954363351</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>1.0365909767083157</v>
+        <v>0.98996298727621401</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.34763779319011701</v>
+        <v>0.48687561603494728</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>0.16914786761489806</v>
+        <v>0.45905415226152169</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.15117148335791733</v>
+        <v>0.14661179264811758</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.65111313056780851</v>
+        <v>0.63147401327840891</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>2.4789481072487445</v>
+        <v>2.4041771491048998</v>
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>1.1059486797470606</v>
+        <v>1.0725906428439065</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>0.4946400936566514</v>
+        <v>0.47972057451426958</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.6841406082053062</v>
+        <v>0.66350530380702399</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>6.0506339031895502</v>
+        <v>5.8681324248422593</v>
       </c>
       <c r="U24">
         <f>U23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.90872745614028949</v>
+        <v>0.88131807940160567</v>
       </c>
       <c r="V24">
         <f>V23/(AVERAGE($B$23:$AP$23))</f>
-        <v>9.851624758156409E-2</v>
+        <v>7.9620636456842891E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="2"/>
-        <v>0.50767951339924799</v>
+        <v>0.49236669441128134</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>1.0114128866132361</v>
+        <v>0.98090627359057203</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
-        <v>1.6103254453825584</v>
+        <v>1.5617542082023259</v>
       </c>
       <c r="Z24">
         <f t="shared" si="2"/>
-        <v>0.12852407012077621</v>
+        <v>0.22563340237299684</v>
       </c>
       <c r="AA24">
         <f t="shared" si="2"/>
-        <v>1.2710860679345479</v>
+        <v>1.3302137366669098</v>
       </c>
       <c r="AB24">
         <f t="shared" si="2"/>
-        <v>1.2446640858245503</v>
+        <v>1.268439104933152</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
-        <v>1.8933237466250021</v>
+        <v>1.990515911421072</v>
       </c>
       <c r="AD24">
         <f t="shared" si="2"/>
-        <v>0.34941723280160669</v>
+        <v>0.33887797979661211</v>
       </c>
       <c r="AE24">
         <f t="shared" si="2"/>
-        <v>2.648534094464956</v>
+        <v>2.9164086270540954</v>
       </c>
       <c r="AF24">
         <f t="shared" si="2"/>
-        <v>0.71905537027923216</v>
+        <v>0.76325989431042485</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>1.5820835818517187</v>
+        <v>1.5992765771072752</v>
       </c>
       <c r="AH24">
         <f t="shared" si="2"/>
-        <v>0.51334136670853325</v>
+        <v>1.8469990902214323E-2</v>
       </c>
       <c r="AI24">
         <f t="shared" si="2"/>
-        <v>0.44971291999466045</v>
+        <v>0.4969425930582263</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="2"/>
-        <v>0.4466573166213953</v>
+        <v>0.4331850719107927</v>
       </c>
       <c r="AK24">
         <f t="shared" si="2"/>
-        <v>0.11111387119472388</v>
+        <v>0.1077624131355546</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>1.698555992785588E-2</v>
+        <v>1.6473235129001979E-2</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>1.5098275491427449E-2</v>
+        <v>1.4642875670223978E-2</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>1.4093296529029307</v>
+        <v>1.3825750911840944</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>1.0615974954909924</v>
+        <v>0.97505863168330731</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
-        <v>4.7237549891030861</v>
+        <v>4.7237724242725836</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.35">

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C49A04B-4053-41AA-8CAA-1081362282F3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>d1qlong</t>
   </si>
@@ -293,31 +292,25 @@
     <t>_age2</t>
   </si>
   <si>
-    <t>_income3*</t>
-  </si>
-  <si>
-    <t>eq6s*</t>
-  </si>
-  <si>
     <t>*needs to be rechecked for all models</t>
   </si>
   <si>
-    <t>d1iweak*</t>
-  </si>
-  <si>
-    <t>d1ilong*</t>
-  </si>
-  <si>
-    <t>eq4c*</t>
-  </si>
-  <si>
     <t>reg index eq4squared eq4cubed eq6 eq6cubed employer male unemployed _region3 _region5 _income9 _industry2 _industry4 _industry5 _industry6  _industry9- _industry12 _age2 cprovider1 cprovider2</t>
+  </si>
+  <si>
+    <t>eq4c</t>
+  </si>
+  <si>
+    <t>eq6s</t>
+  </si>
+  <si>
+    <t>_income3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,20 +641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -681,7 +674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -741,7 +734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -761,7 +754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -781,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -821,7 +814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -841,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -849,7 +842,7 @@
         <v>0.49</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D10">
         <v>59</v>
@@ -861,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -881,7 +874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -901,7 +894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -921,7 +914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -941,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -958,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -981,7 +974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1087,47 +1080,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.54296875" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.26953125" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.28515625" customWidth="1"/>
     <col min="36" max="37" width="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1138,13 +1131,13 @@
         <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
@@ -1180,7 +1173,7 @@
         <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
         <v>83</v>
@@ -1255,7 +1248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1265,9 +1258,15 @@
       <c r="C2">
         <v>-0.09</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>-0.36</v>
       </c>
+      <c r="F2">
+        <v>0.18</v>
+      </c>
       <c r="G2">
         <v>-0.01</v>
       </c>
@@ -1301,6 +1300,9 @@
       <c r="Q2">
         <v>1.58</v>
       </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
       <c r="S2">
         <v>-1.55</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1549,6 +1551,9 @@
       <c r="E6">
         <v>-0.36</v>
       </c>
+      <c r="F6">
+        <v>0.18</v>
+      </c>
       <c r="G6">
         <v>-0.01</v>
       </c>
@@ -1652,7 +1657,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1814,14 +1819,137 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.63</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.55</v>
+      </c>
+      <c r="F10">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>-0.02</v>
+      </c>
+      <c r="H10">
+        <v>1.62</v>
+      </c>
+      <c r="I10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J10">
+        <v>2.56</v>
+      </c>
+      <c r="K10">
+        <v>-3.28</v>
+      </c>
+      <c r="L10">
+        <v>-5.24</v>
+      </c>
+      <c r="M10">
+        <v>-2.96</v>
+      </c>
+      <c r="N10">
+        <v>-0.95</v>
+      </c>
+      <c r="O10">
+        <v>-9.07</v>
+      </c>
+      <c r="P10">
+        <v>-0.25</v>
+      </c>
+      <c r="Q10">
+        <v>-1.67</v>
+      </c>
+      <c r="R10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.43</v>
+      </c>
+      <c r="T10">
+        <v>-15.58</v>
+      </c>
+      <c r="U10">
+        <v>1.87</v>
+      </c>
+      <c r="V10">
+        <v>1.37</v>
+      </c>
+      <c r="W10">
+        <v>2.46</v>
+      </c>
+      <c r="X10">
+        <v>-1.04</v>
+      </c>
+      <c r="Y10">
+        <v>-3.59</v>
+      </c>
+      <c r="Z10">
+        <v>5.58</v>
+      </c>
+      <c r="AA10">
+        <v>5.9</v>
+      </c>
+      <c r="AB10">
+        <v>5.78</v>
+      </c>
+      <c r="AC10">
+        <v>9.6</v>
+      </c>
+      <c r="AD10">
+        <v>3.36</v>
+      </c>
+      <c r="AE10">
+        <v>9.67</v>
+      </c>
+      <c r="AF10">
+        <v>4.17</v>
+      </c>
+      <c r="AG10">
+        <v>7.01</v>
+      </c>
+      <c r="AH10">
+        <v>5.75</v>
+      </c>
+      <c r="AI10">
+        <v>-0.42</v>
+      </c>
+      <c r="AJ10">
+        <v>1.06</v>
+      </c>
+      <c r="AK10">
+        <v>-0.23</v>
+      </c>
+      <c r="AL10">
+        <v>-0.24</v>
+      </c>
+      <c r="AM10">
+        <v>0.02</v>
+      </c>
+      <c r="AN10">
+        <v>3.32</v>
+      </c>
+      <c r="AO10">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.55000000000000004</v>
@@ -1914,7 +2042,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +2107,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2133,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2015,6 +2143,9 @@
       <c r="C14">
         <v>0.01</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>1.55</v>
       </c>
@@ -2124,7 +2255,7 @@
         <v>-3.03</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2326,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2242,7 +2373,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2399,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2302,6 +2433,9 @@
       <c r="Q18">
         <v>-0.21</v>
       </c>
+      <c r="R18">
+        <v>0.87</v>
+      </c>
       <c r="S18">
         <v>-1.39</v>
       </c>
@@ -2375,7 +2509,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2437,7 +2571,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2481,7 +2615,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2501,505 +2635,541 @@
         <v>17.09</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
-        <v>0.44363636363636355</v>
+        <v>0.45916666666666656</v>
       </c>
       <c r="C22" s="1">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.3750000000000004E-2</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:G22" si="0">AVERAGE(D2:D21)</f>
+        <v>-8.5714285714285719E-3</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:AP22" si="0">AVERAGE(E2:E21)</f>
-        <v>1.0466666666666666</v>
+        <f t="shared" si="0"/>
+        <v>1.097</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11857142857142858</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0833333333333334E-2</v>
+        <v>-1.1538461538461541E-2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79666666666666675</v>
+        <f t="shared" ref="H22" si="1">AVERAGE(H2:H21)</f>
+        <v>0.91428571428571437</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6657142857142857</v>
+        <f t="shared" ref="I22" si="2">AVERAGE(I2:I21)</f>
+        <v>1.6900000000000002</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8028571428571429</v>
+        <f t="shared" ref="J22:K22" si="3">AVERAGE(J2:J21)</f>
+        <v>1.8533333333333331</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.88666666666666671</v>
+        <f t="shared" si="3"/>
+        <v>-1.0707692307692307</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.83599999999999997</v>
+        <f t="shared" ref="L22" si="4">AVERAGE(L2:L21)</f>
+        <v>-1.2363636363636366</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.26700000000000002</v>
+        <f t="shared" ref="M22" si="5">AVERAGE(M2:M21)</f>
+        <v>-0.51181818181818184</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999997</v>
+        <f t="shared" ref="N22:O22" si="6">AVERAGE(N2:N21)</f>
+        <v>0.84999999999999987</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.3783333333333339</v>
+        <f t="shared" si="6"/>
+        <v>-5.0485714285714289</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9533333333333334</v>
+        <f t="shared" ref="P22" si="7">AVERAGE(P2:P21)</f>
+        <v>1.6385714285714286</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87363636363636354</v>
+        <f t="shared" ref="Q22" si="8">AVERAGE(Q2:Q21)</f>
+        <v>0.66166666666666685</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" ref="R22" si="9">AVERAGE(R2:R21)</f>
+        <v>1.0114285714285713</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2083333333333333</v>
+        <f t="shared" ref="E22:AP22" si="10">AVERAGE(S2:S21)</f>
+        <v>-0.97428571428571431</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="0"/>
-        <v>-10.686666666666667</v>
+        <f t="shared" si="10"/>
+        <v>-10.9925</v>
       </c>
       <c r="U22" s="1">
         <f>AVERAGE(U2:U21)</f>
-        <v>-1.605</v>
+        <v>-1.2188888888888887</v>
       </c>
       <c r="V22" s="1">
         <f>AVERAGE(V2:V21)</f>
-        <v>0.14500000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89666666666666683</v>
+        <f t="shared" si="10"/>
+        <v>1.2875000000000001</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7863636363636362</v>
+        <f t="shared" si="10"/>
+        <v>-1.7241666666666664</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.8441666666666663</v>
+        <f t="shared" si="10"/>
+        <v>-2.9015384615384616</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.41090909090909106</v>
+        <f t="shared" si="10"/>
+        <v>0.84166666666666679</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4225000000000003</v>
+        <f t="shared" si="10"/>
+        <v>2.8088888888888892</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
+        <f t="shared" si="10"/>
+        <v>2.7437499999999999</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.625</v>
+        <f t="shared" si="10"/>
+        <v>3.939473684210526</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.61714285714285722</v>
+        <f t="shared" si="10"/>
+        <v>-0.12</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3111764705882365</v>
+        <f t="shared" si="10"/>
+        <v>5.5533333333333337</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.39</v>
+        <f t="shared" si="10"/>
+        <v>1.7871428571428571</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9125000000000001</v>
+        <f t="shared" si="10"/>
+        <v>3.3677777777777775</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.363636363636361E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.44833333333333342</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.90500000000000003</v>
+        <f t="shared" si="10"/>
+        <v>-0.85111111111111115</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78888888888888886</v>
+        <f t="shared" si="10"/>
+        <v>0.81600000000000006</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.19625000000000001</v>
+        <f t="shared" si="10"/>
+        <v>-0.2</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000000002E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6250000000000001E-2</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.6666666666666668E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5178571428571428</v>
+        <f t="shared" si="10"/>
+        <v>2.5713333333333335</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7757142857142856</v>
+        <f t="shared" si="10"/>
+        <v>-1.6975</v>
       </c>
       <c r="AP22" s="1">
-        <f t="shared" si="0"/>
-        <v>8.6026315789473671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>8.4779999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
-        <v>0.44363636363636355</v>
+        <v>0.45916666666666656</v>
       </c>
       <c r="C23">
         <f>ABS(C22)</f>
-        <v>4.3750000000000004E-2</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="11">ABS(D22)</f>
+        <v>8.5714285714285719E-3</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:AP23" si="1">ABS(E22)</f>
-        <v>1.0466666666666666</v>
+        <f t="shared" si="11"/>
+        <v>1.097</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="11"/>
+        <v>0.11857142857142858</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1.0833333333333334E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1538461538461541E-2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.79666666666666675</v>
+        <f t="shared" ref="H23" si="12">ABS(H22)</f>
+        <v>0.91428571428571437</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>1.6657142857142857</v>
+        <f t="shared" ref="I23" si="13">ABS(I22)</f>
+        <v>1.6900000000000002</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>1.8028571428571429</v>
+        <f t="shared" ref="J23:K23" si="14">ABS(J22)</f>
+        <v>1.8533333333333331</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>0.88666666666666671</v>
+        <f t="shared" si="14"/>
+        <v>1.0707692307692307</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
-        <v>0.83599999999999997</v>
+        <f t="shared" ref="L23" si="15">ABS(L22)</f>
+        <v>1.2363636363636366</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0.26700000000000002</v>
+        <f t="shared" ref="M23" si="16">ABS(M22)</f>
+        <v>0.51181818181818184</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999997</v>
+        <f t="shared" ref="N23:O23" si="17">ABS(N22)</f>
+        <v>0.84999999999999987</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>4.3783333333333339</v>
+        <f t="shared" si="17"/>
+        <v>5.0485714285714289</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>1.9533333333333334</v>
+        <f t="shared" ref="P23" si="18">ABS(P22)</f>
+        <v>1.6385714285714286</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>0.87363636363636354</v>
+        <f t="shared" ref="Q23" si="19">ABS(Q22)</f>
+        <v>0.66166666666666685</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23" si="20">ABS(R22)</f>
+        <v>1.0114285714285713</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>1.2083333333333333</v>
+        <f t="shared" ref="E23:AP23" si="21">ABS(S22)</f>
+        <v>0.97428571428571431</v>
       </c>
       <c r="T23">
-        <f t="shared" si="1"/>
-        <v>10.686666666666667</v>
+        <f t="shared" si="21"/>
+        <v>10.9925</v>
       </c>
       <c r="U23">
         <f>ABS(U22)</f>
-        <v>1.605</v>
+        <v>1.2188888888888887</v>
       </c>
       <c r="V23">
         <f>ABS(V22)</f>
-        <v>0.14500000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="W23">
-        <f t="shared" si="1"/>
-        <v>0.89666666666666683</v>
+        <f t="shared" si="21"/>
+        <v>1.2875000000000001</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
-        <v>1.7863636363636362</v>
+        <f t="shared" si="21"/>
+        <v>1.7241666666666664</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="1"/>
-        <v>2.8441666666666663</v>
+        <f t="shared" si="21"/>
+        <v>2.9015384615384616</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="1"/>
-        <v>0.41090909090909106</v>
+        <f t="shared" si="21"/>
+        <v>0.84166666666666679</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="1"/>
-        <v>2.4225000000000003</v>
+        <f t="shared" si="21"/>
+        <v>2.8088888888888892</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="1"/>
-        <v>2.31</v>
+        <f t="shared" si="21"/>
+        <v>2.7437499999999999</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="1"/>
-        <v>3.625</v>
+        <f t="shared" si="21"/>
+        <v>3.939473684210526</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="1"/>
-        <v>0.61714285714285722</v>
+        <f t="shared" si="21"/>
+        <v>0.12</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="1"/>
-        <v>5.3111764705882365</v>
+        <f t="shared" si="21"/>
+        <v>5.5533333333333337</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="1"/>
-        <v>1.39</v>
+        <f t="shared" si="21"/>
+        <v>1.7871428571428571</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="1"/>
-        <v>2.9125000000000001</v>
+        <f t="shared" si="21"/>
+        <v>3.3677777777777775</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="1"/>
-        <v>3.363636363636361E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.44833333333333342</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="1"/>
-        <v>0.90500000000000003</v>
+        <f t="shared" si="21"/>
+        <v>0.85111111111111115</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="1"/>
-        <v>0.78888888888888886</v>
+        <f t="shared" si="21"/>
+        <v>0.81600000000000006</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="1"/>
-        <v>0.19625000000000001</v>
+        <f t="shared" si="21"/>
+        <v>0.2</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666668E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="1"/>
-        <v>2.5178571428571428</v>
+        <f t="shared" si="21"/>
+        <v>2.5713333333333335</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="1"/>
-        <v>1.7757142857142856</v>
+        <f t="shared" si="21"/>
+        <v>1.6975</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="1"/>
-        <v>8.6026315789473671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+        <f t="shared" si="21"/>
+        <v>8.4779999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <f>B23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.24360420433190796</v>
+        <v>0.25459892977211718</v>
       </c>
       <c r="C24">
         <f>C23/(AVERAGE($B$23:$AP$23))</f>
-        <v>2.4023467896461217E-2</v>
+        <v>2.2179217112634538E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:G24" si="22">D23/(AVERAGE($B$23:$AP$23))</f>
+        <v>4.7526893812788289E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:AP24" si="2">E23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.57473287005629115</v>
+        <f t="shared" si="22"/>
+        <v>0.60826502931400206</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="22"/>
+        <v>6.5745536441023808E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>5.9486682410284913E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.3978510901830403E-3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>0.43745591064794137</v>
+        <f t="shared" ref="H24" si="23">H23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.50695353400307508</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>0.91465676954363351</v>
+        <f t="shared" ref="I24" si="24">I23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.93707192300880915</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>0.98996298727621401</v>
+        <f t="shared" ref="J24:K24" si="25">J23/(AVERAGE($B$23:$AP$23))</f>
+        <v>1.0276370595520665</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0.48687561603494728</v>
+        <f t="shared" si="25"/>
+        <v>0.59372058116898596</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>0.45905415226152169</v>
+        <f t="shared" ref="L24" si="26">L23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.68553943802688566</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.14661179264811758</v>
+        <f t="shared" ref="M24" si="27">M23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.28379316441848279</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>0.63147401327840891</v>
+        <f t="shared" ref="N24:O24" si="28">N23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.47130836364348377</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>2.4041771491048998</v>
+        <f t="shared" si="28"/>
+        <v>2.7993340455732305</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
-        <v>1.0725906428439065</v>
+        <f t="shared" ref="P24" si="29">P23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.90855578672113613</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>0.47972057451426958</v>
+        <f t="shared" ref="Q24" si="30">Q23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.36688121640482968</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ref="R24" si="31">R23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.5608173469909018</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
-        <v>0.66350530380702399</v>
+        <f t="shared" ref="E24:AP24" si="32">S23/(AVERAGE($B$23:$AP$23))</f>
+        <v>0.54022235967202692</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
-        <v>5.8681324248422593</v>
+        <f t="shared" si="32"/>
+        <v>6.0951261027658781</v>
       </c>
       <c r="U24">
         <f>U23/(AVERAGE($B$23:$AP$23))</f>
-        <v>0.88131807940160567</v>
+        <v>0.67585003257111331</v>
       </c>
       <c r="V24">
         <f>V23/(AVERAGE($B$23:$AP$23))</f>
-        <v>7.9620636456842891E-2</v>
+        <v>0.17743373690107628</v>
       </c>
       <c r="W24">
-        <f t="shared" si="2"/>
-        <v>0.49236669441128134</v>
+        <f t="shared" si="32"/>
+        <v>0.71389355081292416</v>
       </c>
       <c r="X24">
-        <f t="shared" si="2"/>
-        <v>0.98090627359057203</v>
+        <f t="shared" si="32"/>
+        <v>0.9560166709591843</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="2"/>
-        <v>1.5617542082023259</v>
+        <f t="shared" si="32"/>
+        <v>1.6088462874780283</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="2"/>
-        <v>0.22563340237299684</v>
+        <f t="shared" si="32"/>
+        <v>0.46668769341168503</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="2"/>
-        <v>1.3302137366669098</v>
+        <f t="shared" si="32"/>
+        <v>1.5574739127983364</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="2"/>
-        <v>1.268439104933152</v>
+        <f t="shared" si="32"/>
+        <v>1.5213556738197751</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="2"/>
-        <v>1.990515911421072</v>
+        <f t="shared" si="32"/>
+        <v>2.1843610537903877</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="2"/>
-        <v>0.33887797979661211</v>
+        <f t="shared" si="32"/>
+        <v>6.6537651337903597E-2</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="2"/>
-        <v>2.9164086270540954</v>
+        <f t="shared" si="32"/>
+        <v>3.0792146424707614</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="2"/>
-        <v>0.76325989431042485</v>
+        <f t="shared" si="32"/>
+        <v>0.99093573599663576</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="2"/>
-        <v>1.5992765771072752</v>
+        <f t="shared" si="32"/>
+        <v>1.8673668630109796</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="2"/>
-        <v>1.8469990902214323E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.24859205847077878</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="2"/>
-        <v>0.4969425930582263</v>
+        <f t="shared" si="32"/>
+        <v>0.47192445300772373</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="2"/>
-        <v>0.4331850719107927</v>
+        <f t="shared" si="32"/>
+        <v>0.45245602909774452</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="2"/>
-        <v>0.1077624131355546</v>
+        <f t="shared" si="32"/>
+        <v>0.11089608556317268</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="2"/>
-        <v>1.6473235129001979E-2</v>
+        <f t="shared" si="32"/>
+        <v>3.1189524064642316E-2</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="2"/>
-        <v>1.4642875670223978E-2</v>
+        <f t="shared" si="32"/>
+        <v>1.2198569411948993E-2</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="2"/>
-        <v>1.3825750911840944</v>
+        <f t="shared" si="32"/>
+        <v>1.4257540067238568</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="2"/>
-        <v>0.97505863168330731</v>
+        <f t="shared" si="32"/>
+        <v>0.94123052621742809</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="2"/>
-        <v>4.7237724242725836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+        <f t="shared" si="32"/>
+        <v>4.700885067022889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Factors" sheetId="2" r:id="rId2"/>
+    <sheet name="Robust Factors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>d1qlong</t>
   </si>
@@ -88,9 +89,6 @@
     <t>Factor Name</t>
   </si>
   <si>
-    <t>Vertical Robustness</t>
-  </si>
-  <si>
     <t>Horizontal Robustness</t>
   </si>
   <si>
@@ -305,6 +303,60 @@
   </si>
   <si>
     <t>_income3</t>
+  </si>
+  <si>
+    <t>eq4squared</t>
+  </si>
+  <si>
+    <t>eq4cubed</t>
+  </si>
+  <si>
+    <t>eq6squared</t>
+  </si>
+  <si>
+    <t>Vertical Effect</t>
+  </si>
+  <si>
+    <t>Horizontal Effect</t>
+  </si>
+  <si>
+    <t>vertical effect &gt; horizontal effect; they are not co-equal</t>
+  </si>
+  <si>
+    <t>eq4*</t>
+  </si>
+  <si>
+    <t>eq6cubed*</t>
+  </si>
+  <si>
+    <t>male*</t>
+  </si>
+  <si>
+    <t>_industry6**</t>
+  </si>
+  <si>
+    <t>_industry9**</t>
+  </si>
+  <si>
+    <t>cprovider1**</t>
+  </si>
+  <si>
+    <t>Vertical Effect = effect of highest sig value in any single model</t>
+  </si>
+  <si>
+    <t>Strong Model</t>
+  </si>
+  <si>
+    <t>Significance (p)</t>
+  </si>
+  <si>
+    <t>t2.48</t>
+  </si>
+  <si>
+    <t>*vert and horiz</t>
+  </si>
+  <si>
+    <t>**vert, horiz, and important</t>
   </si>
 </sst>
 </file>
@@ -357,11 +409,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +698,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,12 +1044,12 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0.34</v>
@@ -1011,12 +1064,12 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0.32</v>
@@ -1031,12 +1084,12 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>0.28000000000000003</v>
@@ -1051,12 +1104,12 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0.17</v>
@@ -1071,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1083,15 +1136,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1125,127 +1178,127 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" t="s">
         <v>87</v>
       </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" t="s">
         <v>76</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -2401,7 +2454,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>0.28000000000000003</v>
@@ -2511,7 +2564,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>2.42</v>
@@ -2573,7 +2626,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20">
         <v>2.02</v>
@@ -2617,7 +2670,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>2.2999999999999998</v>
@@ -2637,7 +2690,7 @@
     </row>
     <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
@@ -2806,7 +2859,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
@@ -2975,7 +3028,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <f>B23/(AVERAGE($B$23:$AP$23))</f>
@@ -3144,32 +3197,667 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D26">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E26">
+        <f>8/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="L26">
+        <f>10/11</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M26">
+        <f>9/11</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="N26">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q26">
+        <f>8/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T26">
+        <f>13/16</f>
+        <v>0.8125</v>
+      </c>
+      <c r="U26">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="V26">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W26">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <f>6/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AG26">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AH26">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <f>3/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="AK26">
+        <f>6/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="AL26">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="AM26">
+        <f>3/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <f>19/20</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0.45916666666666656</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.25459892977211718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>0.11857142857142858</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6.5745536441023808E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>-1.1538461538461541E-2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6.3978510901830403E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.50695353400307508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.93707192300880915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>1.8533333333333331</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0276370595520665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>-5.0485714285714289</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2.7993340455732305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9">
+        <v>1.0114285714285713</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.5608173469909018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>-1.7241666666666664</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.9560166709591843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>-2.9015384615384616</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.6088462874780283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>2.8088888888888892</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.5574739127983364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>2.7437499999999999</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.5213556738197751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>3.939473684210526</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.1843610537903877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>5.5533333333333337</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3.0792146424707614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <v>-0.85111111111111115</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.47192445300772373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>2.5713333333333335</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1.4257540067238568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>-1.6975</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.94123052621742809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27">
+        <v>1E-3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>-17.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -697,13 +697,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2761,7 +2763,7 @@
         <v>1.0114285714285713</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" ref="E22:AP22" si="10">AVERAGE(S2:S21)</f>
+        <f t="shared" ref="S22:AP22" si="10">AVERAGE(S2:S21)</f>
         <v>-0.97428571428571431</v>
       </c>
       <c r="T22" s="1">
@@ -2930,7 +2932,7 @@
         <v>1.0114285714285713</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="E23:AP23" si="21">ABS(S22)</f>
+        <f t="shared" ref="S23:AP23" si="21">ABS(S22)</f>
         <v>0.97428571428571431</v>
       </c>
       <c r="T23">
@@ -3099,7 +3101,7 @@
         <v>0.5608173469909018</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="E24:AP24" si="32">S23/(AVERAGE($B$23:$AP$23))</f>
+        <f t="shared" ref="S24:AP24" si="32">S23/(AVERAGE($B$23:$AP$23))</f>
         <v>0.54022235967202692</v>
       </c>
       <c r="T24">
@@ -3396,7 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/stata/udacity-exploratory-analysis/result-model-data.xlsx
+++ b/stata/udacity-exploratory-analysis/result-model-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>d1qlong</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Horizontal Robustness</t>
   </si>
   <si>
-    <t>Total Robustness</t>
-  </si>
-  <si>
     <t>Importance</t>
   </si>
   <si>
@@ -272,12 +269,6 @@
     <t>_income4</t>
   </si>
   <si>
-    <t>vert = in-model value stability (esp directional)</t>
-  </si>
-  <si>
-    <t>horiz = cross-model value stability (esp directional)</t>
-  </si>
-  <si>
     <t>_region9</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>_age2</t>
   </si>
   <si>
-    <t>*needs to be rechecked for all models</t>
-  </si>
-  <si>
     <t>reg index eq4squared eq4cubed eq6 eq6cubed employer male unemployed _region3 _region5 _income9 _industry2 _industry4 _industry5 _industry6  _industry9- _industry12 _age2 cprovider1 cprovider2</t>
   </si>
   <si>
@@ -350,13 +338,16 @@
     <t>Significance (p)</t>
   </si>
   <si>
-    <t>t2.48</t>
-  </si>
-  <si>
     <t>*vert and horiz</t>
   </si>
   <si>
     <t>**vert, horiz, and important</t>
+  </si>
+  <si>
+    <t>Full Horizontal Effect</t>
+  </si>
+  <si>
+    <t>Full Importance</t>
   </si>
 </sst>
 </file>
@@ -697,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,12 +1037,12 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0.34</v>
@@ -1066,12 +1057,12 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0.32</v>
@@ -1086,12 +1077,12 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0.28000000000000003</v>
@@ -1106,12 +1097,12 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0.17</v>
@@ -1126,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1136,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP34"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,127 +1171,127 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
         <v>75</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -2456,7 +2447,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>0.28000000000000003</v>
@@ -2566,7 +2557,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>2.42</v>
@@ -2628,7 +2619,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>2.02</v>
@@ -2672,7 +2663,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>2.2999999999999998</v>
@@ -2692,7 +2683,7 @@
     </row>
     <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <f>AVERAGE(B2:B21)</f>
@@ -2861,7 +2852,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <f>ABS(B22)</f>
@@ -3030,7 +3021,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <f>B23/(AVERAGE($B$23:$AP$23))</f>
@@ -3199,194 +3190,154 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C25">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D26">
+      <c r="D25">
         <f>4/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E26">
+      <c r="E25">
         <f>8/10</f>
         <v>0.8</v>
       </c>
-      <c r="F26">
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J25">
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="K25">
         <f>12/13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L26">
+      <c r="L25">
         <f>10/11</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="M26">
+      <c r="M25">
         <f>9/11</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="N26">
+      <c r="N25">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="O26">
+      <c r="O25">
         <v>1</v>
       </c>
-      <c r="P26">
+      <c r="P25">
         <f>4/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="Q26">
+      <c r="Q25">
         <f>8/12</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="R26">
+      <c r="R25">
         <v>1</v>
       </c>
-      <c r="S26">
+      <c r="S25">
         <f>6/7</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="T26">
+      <c r="T25">
         <f>13/16</f>
         <v>0.8125</v>
       </c>
-      <c r="U26">
+      <c r="U25">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="V26">
+      <c r="V25">
         <f>5/7</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="W26">
+      <c r="W25">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="X26">
+      <c r="X25">
         <v>1</v>
       </c>
-      <c r="Y26">
+      <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Z26">
+      <c r="Z25">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="AA26">
+      <c r="AA25">
         <v>1</v>
       </c>
-      <c r="AB26">
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="AC26">
+      <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AD26">
+      <c r="AD25">
         <f>6/8</f>
         <v>0.75</v>
       </c>
-      <c r="AE26">
+      <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AF26">
+      <c r="AF25">
         <f>5/7</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="AG26">
+      <c r="AG25">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="AH26">
+      <c r="AH25">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AI26">
+      <c r="AI25">
         <v>1</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ25">
         <f>3/10</f>
         <v>0.3</v>
       </c>
-      <c r="AK26">
+      <c r="AK25">
         <f>6/8</f>
         <v>0.75</v>
       </c>
-      <c r="AL26">
+      <c r="AL25">
         <f>5/8</f>
         <v>0.625</v>
       </c>
-      <c r="AM26">
+      <c r="AM25">
         <f>3/10</f>
         <v>0.3</v>
       </c>
-      <c r="AN26">
+      <c r="AN25">
         <v>1</v>
       </c>
-      <c r="AO26">
+      <c r="AO25">
         <v>1</v>
       </c>
-      <c r="AP26">
+      <c r="AP25">
         <f>19/20</f>
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3396,470 +3347,612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>0.45916666666666656</v>
+        <f>ROUND(E2,2)</f>
+        <v>0.46</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <f>ROUND(F2,2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.45916666666666656</v>
+      </c>
+      <c r="F2">
         <v>0.25459892977211718</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>0.11857142857142858</v>
+        <f t="shared" ref="B3:B18" si="0">ROUND(E3,2)</f>
+        <v>0.12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D18" si="1">ROUND(F3,2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.11857142857142858</v>
+      </c>
+      <c r="F3">
         <v>6.5745536441023808E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>-1.1538461538461541E-2</v>
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <v>-1.1538461538461541E-2</v>
+      </c>
+      <c r="F4">
         <v>6.3978510901830403E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>0.91428571428571437</v>
+        <f t="shared" si="0"/>
+        <v>0.91</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="E5">
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="F5">
         <v>0.50695353400307508</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>1.6900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.69</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="E6">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="F6">
         <v>0.93707192300880915</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>1.8533333333333331</v>
+        <f t="shared" si="0"/>
+        <v>1.85</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.03</v>
+      </c>
+      <c r="E7">
+        <v>1.8533333333333331</v>
+      </c>
+      <c r="F7">
         <v>1.0276370595520665</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>-5.0485714285714289</v>
+        <f t="shared" si="0"/>
+        <v>-5.05</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="E8">
+        <v>-5.0485714285714289</v>
+      </c>
+      <c r="F8">
         <v>2.7993340455732305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>1.0114285714285713</v>
+        <f t="shared" si="0"/>
+        <v>1.01</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9">
+        <v>1.0114285714285713</v>
+      </c>
+      <c r="F9">
         <v>0.5608173469909018</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10">
-        <v>-1.7241666666666664</v>
+        <f t="shared" si="0"/>
+        <v>-1.72</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="E10">
+        <v>-1.7241666666666664</v>
+      </c>
+      <c r="F10">
         <v>0.9560166709591843</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>-2.9015384615384616</v>
+        <f t="shared" si="0"/>
+        <v>-2.9</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.61</v>
+      </c>
+      <c r="E11">
+        <v>-2.9015384615384616</v>
+      </c>
+      <c r="F11">
         <v>1.6088462874780283</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>2.8088888888888892</v>
+        <f t="shared" si="0"/>
+        <v>2.81</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="E12">
+        <v>2.8088888888888892</v>
+      </c>
+      <c r="F12">
         <v>1.5574739127983364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>2.7437499999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.74</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+      <c r="E13">
+        <v>2.7437499999999999</v>
+      </c>
+      <c r="F13">
         <v>1.5213556738197751</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>3.939473684210526</v>
+        <f t="shared" si="0"/>
+        <v>3.94</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E14">
+        <v>3.939473684210526</v>
+      </c>
+      <c r="F14">
         <v>2.1843610537903877</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15">
-        <v>5.5533333333333337</v>
+        <f t="shared" si="0"/>
+        <v>5.55</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.08</v>
+      </c>
+      <c r="E15">
+        <v>5.5533333333333337</v>
+      </c>
+      <c r="F15">
         <v>3.0792146424707614</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16">
-        <v>-0.85111111111111115</v>
+        <f t="shared" si="0"/>
+        <v>-0.85</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="E16">
+        <v>-0.85111111111111115</v>
+      </c>
+      <c r="F16">
         <v>0.47192445300772373</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>2.5713333333333335</v>
+        <f t="shared" si="0"/>
+        <v>2.57</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.43</v>
+      </c>
+      <c r="E17">
+        <v>2.5713333333333335</v>
+      </c>
+      <c r="F17">
         <v>1.4257540067238568</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18">
-        <v>-1.6975</v>
+        <f t="shared" si="0"/>
+        <v>-1.7</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="E18">
+        <v>-1.6975</v>
+      </c>
+      <c r="F18">
         <v>0.94123052621742809</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.43</v>
+      </c>
+      <c r="D22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>0.22</v>
+      </c>
+      <c r="D23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>-0.02</v>
+      </c>
+      <c r="D24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>1.31</v>
+      </c>
+      <c r="D25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>2.29</v>
+      </c>
+      <c r="D28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1.84</v>
+      </c>
+      <c r="D29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>-17.39</v>
+      </c>
+      <c r="D30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>100</v>
       </c>
-      <c r="B22">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24">
-        <v>0.05</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
-        <v>1E-3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27">
-        <v>1E-3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28">
-        <v>0.05</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>-17.39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32">
+      <c r="C32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D32">
         <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1.54</v>
+      </c>
+      <c r="D33">
         <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>1.54</v>
       </c>
     </row>
   </sheetData>
